--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2124 +418,2296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.2568106590850758</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4.39214796182776</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.001333514902157551</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.001425068802346675</v>
+      </c>
+      <c r="E2">
         <v>0.5154492817869332</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.474335093448679</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2.278699538032412</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.06984119122370741</v>
+      </c>
+      <c r="I2">
+        <v>1.968397333439982</v>
+      </c>
+      <c r="J2">
         <v>0.4748858010158539</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>2.391699731756916</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>0.8956638721380835</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>5.455311455048246</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N2" t="n">
-        <v>17.28309652119172</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>19.3214265997556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.2573559046457661</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4.401473116736103</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.001533542137481184</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.001638829122698676</v>
+      </c>
+      <c r="E3">
         <v>0.5927666740549731</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.474335093448679</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2.278699538032412</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.07287776475517294</v>
+      </c>
+      <c r="I3">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="J3">
         <v>0.4888530304574965</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>2.462043841514472</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>0.7566815471511389</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>4.608797608575242</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N3" t="n">
-        <v>16.46929950890337</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>18.596262386842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.2628083602526679</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4.494724665819492</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0009334604315102861</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.0009975481616426726</v>
+      </c>
+      <c r="E4">
         <v>0.3608144972508532</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.3162233956324529</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.519133025354941</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.05769489709784525</v>
+      </c>
+      <c r="I4">
+        <v>1.626067362406941</v>
+      </c>
+      <c r="J4">
         <v>0.3538364791882832</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>1.78205078052476</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>0.5096018582854608</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>3.103884103734346</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N4" t="n">
-        <v>12.80185036790784</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>14.48567671514276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.3047922684258121</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>5.212761593761611</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.002066948098344205</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.002208856643637346</v>
+      </c>
+      <c r="E5">
         <v>0.7989463867697463</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.6324467912649058</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3.038266050709882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.05465832356637971</v>
+      </c>
+      <c r="I5">
+        <v>1.540484869648681</v>
+      </c>
+      <c r="J5">
         <v>0.5121317461935677</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>2.579284024443731</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>0.5713717805018802</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>3.480112479944571</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.01455592701325122</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.2300434265694257</v>
       </c>
-      <c r="N5" t="n">
-        <v>17.37677942369673</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>18.97206452545709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.3200591441251371</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5.473865931195109</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.001266839157049674</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.001353815362229341</v>
+      </c>
+      <c r="E6">
         <v>0.4896768176975864</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.5973108584168553</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>2.869473492337111</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.05769489709784525</v>
+      </c>
+      <c r="I6">
+        <v>1.626067362406941</v>
+      </c>
+      <c r="J6">
         <v>0.535410461929639</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>2.696524207372993</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>0.525044338839566</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>3.197941197786904</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N6" t="n">
-        <v>16.85333290100755</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>18.53718213671752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.3156971796396157</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>5.399264691928394</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.002600354059207225</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.002778884164576017</v>
+      </c>
+      <c r="E7">
         <v>1.00512609948452</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.4567671270246541</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2.194303258846026</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.07287776475517294</v>
+      </c>
+      <c r="I7">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="J7">
         <v>0.5121317461935677</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>2.579284024443731</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>0.5096018582854608</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>3.103884103734346</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N7" t="n">
-        <v>16.22542005578913</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>18.35245617684791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.3691312445872535</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6.313129872945636</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.002933732784746613</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.003135151365162685</v>
+      </c>
+      <c r="E8">
         <v>1.133988419931253</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.6324467912649058</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>3.038266050709882</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.07591433828663846</v>
+      </c>
+      <c r="I8">
+        <v>2.139562318956502</v>
+      </c>
+      <c r="J8">
         <v>0.3817709380715687</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>1.922739000039873</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>0.386062013852622</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>2.351427351313899</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.0203782978185517</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.3220607971971959</v>
       </c>
-      <c r="N8" t="n">
-        <v>16.87433451051739</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>19.09001258634094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.4274725195811033</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7.310921448137934</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.0008001089412945309</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.0008550412814080053</v>
+      </c>
+      <c r="E9">
         <v>0.3092695690721599</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.3864952613285535</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1.856718142100483</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.06680461769224183</v>
+      </c>
+      <c r="I9">
+        <v>1.882814840681722</v>
+      </c>
+      <c r="J9">
         <v>0.2840003319800695</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>1.430330231736979</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>0.3242920916362025</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>1.975198975103675</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>14.30549867961846</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>16.25517307033253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.4083889249569467</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>6.984541026346058</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.000466730215755143</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.0004987740808213363</v>
+      </c>
+      <c r="E10">
         <v>0.1804072486254266</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.3689272949045282</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.772321862914098</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.1093166471327594</v>
+      </c>
+      <c r="I10">
+        <v>3.080969739297363</v>
+      </c>
+      <c r="J10">
         <v>0.2281314142134984</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>1.148953792706753</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>0.1698672860951538</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>1.034628034578116</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N10" t="n">
-        <v>12.34555348627287</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>15.53587191656806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.2949778483333887</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.044908805411505</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.0004000544706472655</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.0004275206407040026</v>
+      </c>
+      <c r="E11">
         <v>0.15463478453608</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.2986554292084276</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.434736746168555</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.0910972059439662</v>
+      </c>
+      <c r="I11">
+        <v>2.567474782747802</v>
+      </c>
+      <c r="J11">
         <v>0.1024263492387136</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>0.5158568048887464</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.262522169419783</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>1.598970598893452</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N11" t="n">
-        <v>9.757009461285834</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>12.41560891614766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.2649893424954287</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4.532025285452849</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.001200163411941796</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.001282561922112007</v>
+      </c>
+      <c r="E12">
         <v>0.4639043536082399</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.2635194963603775</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1.265944187795784</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.07895091181810404</v>
+      </c>
+      <c r="I12">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="J12">
         <v>0.09777060609149933</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.4924087683028943</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.1389823249869439</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>0.8465138464730039</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N12" t="n">
-        <v>8.416178245695498</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>10.72035636773853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.1930169284843246</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>3.301104837552074</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.0002667029804315103</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.000285013760469335</v>
+      </c>
+      <c r="E13">
         <v>0.1030898563573866</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.2283835635123271</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1.097151629423013</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.07895091181810404</v>
+      </c>
+      <c r="I13">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="J13">
         <v>0.07449189035542805</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.3751685853736337</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.1235398444328391</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>0.7524567524204477</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N13" t="n">
-        <v>6.297590461608441</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>8.601704495921343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.09923469204561315</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.697178193317734</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.0001333514902157551</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.0001425068802346675</v>
+      </c>
+      <c r="E14">
         <v>0.05154492817869331</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.08783983212012578</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.4219813959319281</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.05162175003491416</v>
+      </c>
+      <c r="I14">
+        <v>1.454902376890421</v>
+      </c>
+      <c r="J14">
         <v>0.05586891776657103</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.2813764390302253</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.04632744166231463</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>0.2821712821576679</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>3.023656473701089</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>4.530189756016443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.08069634298214701</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.380122926434201</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.000466730215755143</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.0004987740808213363</v>
+      </c>
+      <c r="E15">
         <v>0.1804072486254266</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.1405437313922012</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.6751702334910848</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.01821944118879323</v>
+      </c>
+      <c r="I15">
+        <v>0.5134949565495605</v>
+      </c>
+      <c r="J15">
         <v>0.1396722944164276</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.7034410975755631</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.07721240277052442</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>0.4702854702627799</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>3.84801847816611</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>4.379764919769531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.06597471284351207</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.128343743909042</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.0004000544706472655</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.0004275206407040026</v>
+      </c>
+      <c r="E16">
         <v>0.15463478453608</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="J16">
         <v>0.06052466091378529</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.3048244756160774</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.07721240277052442</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>0.4702854702627799</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>2.262200305322449</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>2.262227771492506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.03598620700555203</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.6154602239503871</v>
       </c>
-      <c r="D17" t="n">
-        <v>6.667574510787757e-05</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>7.125344011733375E-05</v>
+      </c>
+      <c r="E17">
         <v>0.02577246408934666</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.05270389927207547</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.2531888375591568</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17">
         <v>0.04190168832492826</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.211032329272669</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.03088496110820976</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>0.1881141881051119</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>1.455111474432545</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>1.455116052127555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.02835276915588949</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.4849080552336381</v>
       </c>
-      <c r="D18" t="n">
-        <v>6.667574510787757e-05</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>7.125344011733375E-05</v>
+      </c>
+      <c r="E18">
         <v>0.02577246408934666</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.01756796642402515</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.08439627918638561</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18">
         <v>0.02327871573607126</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.1172401829292605</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.06176992221641953</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>0.3762283762102239</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>1.219581406926368</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>1.219585984621377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.02726227803450912</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.4662577454169597</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.0003333787255393879</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.0003562672005866687</v>
+      </c>
+      <c r="E19">
         <v>0.1288623204467333</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.0351359328480503</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.1687925583727712</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.01214629412586216</v>
+      </c>
+      <c r="I19">
+        <v>0.3423299710330403</v>
+      </c>
+      <c r="J19">
         <v>0.05586891776657103</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.2813764390302253</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>0.06176992221641953</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>0.3762283762102239</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>1.601887869068003</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>1.956387022701952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.05016259158349679</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.8579142515672064</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.0001333514902157551</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.0001425068802346675</v>
+      </c>
+      <c r="E20">
         <v>0.05154492817869331</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="J20">
         <v>0.05121317461935679</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.2579284024443732</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>0.1389823249869439</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>0.8465138464730039</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>2.25439287134329</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>2.254402026733309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.1690261238139566</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2.89079802158515</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E21">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.3864952613285535</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1.856718142100483</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.01821944118879323</v>
+      </c>
+      <c r="I21">
+        <v>0.5134949565495605</v>
+      </c>
+      <c r="J21">
         <v>0.1722624964469273</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>0.867577353676528</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>0.1389823249869439</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>0.8465138464730039</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N21" t="n">
-        <v>7.50373073134798</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>8.035458862171362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.2895253927264868</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.951657256328112</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E22">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.5094710262967296</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>2.447492096405183</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.1062800736012939</v>
+      </c>
+      <c r="I22">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="J22">
         <v>0.3072790477161407</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>1.547570414666239</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>0.4787168971772515</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>2.915769915629236</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N22" t="n">
-        <v>13.57391933716528</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>16.67560039039071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.3740384546334652</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>6.397056267120689</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E23">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.2459515299363522</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1.181547908609399</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.09717035300689729</v>
+      </c>
+      <c r="I23">
+        <v>2.738639768264322</v>
+      </c>
+      <c r="J23">
         <v>0.1815739827413559</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>0.9144734268482323</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>0.2470796888656781</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>1.504913504840895</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N23" t="n">
-        <v>11.2219919245325</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>14.05781577888875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.3625882978589714</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>6.201228014045566</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.001066811921726041</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.00114005504187734</v>
+      </c>
+      <c r="E24">
         <v>0.4123594254295465</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.4216311941766038</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2.025510700473255</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.08502405888103508</v>
+      </c>
+      <c r="I24">
+        <v>2.396309797231282</v>
+      </c>
+      <c r="J24">
         <v>0.2514101299495696</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>1.266193975636013</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>0.4478319360690418</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>2.727655727524123</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N24" t="n">
-        <v>14.26423582523402</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>16.74564292446649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.3135161973968549</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>5.361964072295039</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.001466866392373307</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.001567575682581343</v>
+      </c>
+      <c r="E25">
         <v>0.5669942099656264</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.333791362056478</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>1.603529304541327</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.1396823824474148</v>
+      </c>
+      <c r="I25">
+        <v>3.936794666879964</v>
+      </c>
+      <c r="J25">
         <v>0.4516070852797825</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>2.274459548827655</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>0.4478319360690418</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>2.727655727524123</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.0262006686238522</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.4140781678249662</v>
       </c>
-      <c r="N25" t="n">
-        <v>14.52309514679712</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>18.5996729054147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.2644440969347387</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4.522700130544507</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.001133487666833918</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.001211308481994674</v>
+      </c>
+      <c r="E26">
         <v>0.4381318895188931</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.4216311941766038</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2.025510700473255</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.06984119122370741</v>
+      </c>
+      <c r="I26">
+        <v>1.968397333439982</v>
+      </c>
+      <c r="J26">
         <v>0.5074760030463535</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>2.55583598785788</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>1.065531158233237</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>6.489939489626361</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N26" t="n">
-        <v>18.43909375022827</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>20.47741009570712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.2497224667961035</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>4.270920948019354</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.001733569372804817</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.001852589443050677</v>
+      </c>
+      <c r="E27">
         <v>0.6700840663230131</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>0.4216311941766038</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2.025510700473255</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.06073147062931077</v>
+      </c>
+      <c r="I27">
+        <v>1.711649855165201</v>
+      </c>
+      <c r="J27">
         <v>0.5540334345184963</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>2.790316353716401</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>0.9728762749086072</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>5.925596925311027</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N27" t="n">
-        <v>17.98026567504873</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>19.75276602091349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.2469962389926526</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4.224295173477655</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.0007334331961866533</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.0007837878412906713</v>
+      </c>
+      <c r="E28">
         <v>0.2834971049828132</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>0.2459515299363522</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>1.181547908609399</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.07287776475517294</v>
+      </c>
+      <c r="I28">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="J28">
         <v>0.2979675614217122</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>1.500674341494535</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>0.525044338839566</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>3.197941197786904</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N28" t="n">
-        <v>11.85140844088738</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>13.9783163864859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.3053375139865021</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>5.22208674866995</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.002066948098344205</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.002208856643637346</v>
+      </c>
+      <c r="E29">
         <v>0.7989463867697463</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>0.790558489081132</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>3.797832563387352</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.0910972059439662</v>
+      </c>
+      <c r="I29">
+        <v>2.567474782747802</v>
+      </c>
+      <c r="J29">
         <v>0.4888530304574965</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>2.462043841514472</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>0.7875665082593486</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>4.796911796680354</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.02328948322120195</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.3680694825110811</v>
       </c>
-      <c r="N29" t="n">
-        <v>19.84356279263698</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>22.50227668987404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.2720775347844011</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4.653252299261259</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.001000136176618164</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.001068801601760006</v>
+      </c>
+      <c r="E30">
         <v>0.3865869613402</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>0.6324467912649058</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>3.038266050709882</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.04858517650344864</v>
+      </c>
+      <c r="I30">
+        <v>1.369319884132161</v>
+      </c>
+      <c r="J30">
         <v>0.5447219482240676</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>2.743420280544697</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>0.386062013852622</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>2.351427351313899</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.01164474161060098</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.1840347412555406</v>
       </c>
-      <c r="N30" t="n">
-        <v>15.2049408503387</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>16.62291457639945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.3249663541713489</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>5.557792325370158</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.001733569372804817</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.001852589443050677</v>
+      </c>
+      <c r="E31">
         <v>0.6700840663230131</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>0.6148788248408804</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>2.953869771523497</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.06073147062931077</v>
+      </c>
+      <c r="I31">
+        <v>1.711649855165201</v>
+      </c>
+      <c r="J31">
         <v>0.4655743147214253</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>2.344803658585211</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>0.5404868193936709</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>3.291998291839459</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.01455592701325122</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.2300434265694257</v>
       </c>
-      <c r="N31" t="n">
-        <v>17.01078734972415</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>18.7832876955889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.3773099279976065</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>6.453007196570721</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.00246700256899147</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.002636377284341349</v>
+      </c>
+      <c r="E32">
         <v>0.9535811713058264</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.57974289199283</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>2.785077213150725</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.07287776475517294</v>
+      </c>
+      <c r="I32">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="J32">
         <v>0.3817709380715687</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>1.922739000039873</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>0.6949116249347198</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>4.232569232365019</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.01455592701325122</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.2300434265694257</v>
       </c>
-      <c r="N32" t="n">
-        <v>18.62777555258056</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>20.75480251824932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.4340154663093854</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>7.422823307037998</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.0006000817059708981</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.0006412809610560037</v>
+      </c>
+      <c r="E33">
         <v>0.2319521768041199</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>0.2810874627844024</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>1.35034046698217</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.06073147062931077</v>
+      </c>
+      <c r="I33">
+        <v>1.711649855165201</v>
+      </c>
+      <c r="J33">
         <v>0.2467543868023554</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>1.242745939050162</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>0.2934071305279928</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>1.787084786998563</v>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
-        <v>13.29081120500312</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>15.06323373005272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.4503728331300905</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>7.702577954288175</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E34">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.2459515299363522</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1.181547908609399</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.1062800736012939</v>
+      </c>
+      <c r="I34">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="J34">
         <v>0.2514101299495696</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>1.266193975636013</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>0.1080973638787342</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>0.6583996583678919</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N34" t="n">
-        <v>12.03990851473266</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>15.14158956795809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.3151519340789254</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>5.389939537020056</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E35">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.2283835635123271</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1.097151629423013</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.08198748534956958</v>
+      </c>
+      <c r="I35">
+        <v>2.310727304473023</v>
+      </c>
+      <c r="J35">
         <v>0.1303608081219991</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>0.656545024403859</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>0.3242920916362025</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>1.975198975103675</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N35" t="n">
-        <v>10.29238072423649</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>12.68510924714411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.2998850583796002</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>5.128835199586558</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.0004000544706472655</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.0004275206407040026</v>
+      </c>
+      <c r="E36">
         <v>0.15463478453608</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.1581116978162264</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.7595665126774706</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.1002069265383628</v>
+      </c>
+      <c r="I36">
+        <v>2.824222261022583</v>
+      </c>
+      <c r="J36">
         <v>0.1117378355331421</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>0.5627528780604506</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>0.1389823249869439</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>0.8465138464730039</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N36" t="n">
-        <v>8.259259933953194</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>11.1837165876842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.2115552775477908</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>3.618160104435608</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.0001333514902157551</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.0001425068802346675</v>
+      </c>
+      <c r="E37">
         <v>0.05154492817869331</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.1932476306642767</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.9283590710502417</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.07287776475517294</v>
+      </c>
+      <c r="I37">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="J37">
         <v>0.1489837807108561</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.7503371707472674</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.1544248055410488</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>0.9405709405255599</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N37" t="n">
-        <v>7.095156802324628</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>9.222023548668064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.1090491121380365</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.865030981667839</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.0001333514902157551</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.0001425068802346675</v>
+      </c>
+      <c r="E38">
         <v>0.05154492817869331</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.08783983212012578</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.4219813959319281</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.05162175003491416</v>
+      </c>
+      <c r="I38">
+        <v>1.454902376890421</v>
+      </c>
+      <c r="J38">
         <v>0.06518040406099955</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.3282725122019295</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.07721240277052442</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>0.4702854702627799</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>3.476530390823072</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>4.983063673138427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.09432748199940162</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.61325179914268</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.0007334331961866533</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.0007837878412906713</v>
+      </c>
+      <c r="E39">
         <v>0.2834971049828132</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.1581116978162264</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.7595665126774706</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.01214629412586216</v>
+      </c>
+      <c r="I39">
+        <v>0.3423299710330403</v>
+      </c>
+      <c r="J39">
         <v>0.1024263492387136</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.5158568048887464</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.06176992221641953</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>0.3762283762102239</v>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>3.965769482368882</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>4.320296102172889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.07251765957179428</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.240245602809113</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.0007334331961866533</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.0007837878412906713</v>
+      </c>
+      <c r="E40">
         <v>0.2834971049828132</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="J40">
         <v>0.07914763350264227</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.398616621959486</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.1080973638787342</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>0.6583996583678919</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>2.841255078268662</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>2.841305432913766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.04471013597659496</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.7646627024838141</v>
       </c>
-      <c r="D41" t="n">
-        <v>6.667574510787757e-05</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>7.125344011733375E-05</v>
+      </c>
+      <c r="E41">
         <v>0.02577246408934666</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.05270389927207547</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.2531888375591568</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41">
         <v>0.04190168832492826</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.211032329272669</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>0.04632744166231463</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>0.2821712821576679</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>1.722537456543676</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>1.722542034238685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.03816718924831276</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.6527608435837438</v>
       </c>
-      <c r="D42" t="n">
-        <v>6.667574510787757e-05</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>7.125344011733375E-05</v>
+      </c>
+      <c r="E42">
         <v>0.02577246408934666</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.0351359328480503</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.1687925583727712</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42">
         <v>0.02327871573607126</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.1172401829292605</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.06176992221641953</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>0.3762283762102239</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>1.499212860979308</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>1.499217438674317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.02780752359519931</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.4755829003252989</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E43">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.0351359328480503</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.1687925583727712</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.006073147062931081</v>
+      </c>
+      <c r="I43">
+        <v>0.1711649855165202</v>
+      </c>
+      <c r="J43">
         <v>0.04190168832492826</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.211032329272669</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>0.09265488332462926</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>0.5643425643153358</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>1.694767799882245</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>1.872019665546725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.04961734602280658</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.8485890966588668</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.0001333514902157551</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.0001425068802346675</v>
+      </c>
+      <c r="E44">
         <v>0.05154492817869331</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="J44">
         <v>0.05586891776657103</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.2813764390302253</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.1698672860951538</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>1.034628034578116</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>2.491625399820648</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>2.491634555210667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.1701166149353369</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>2.909448331401828</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E45">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.2108155970883019</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>1.012755350236627</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.01518286765732769</v>
+      </c>
+      <c r="I45">
+        <v>0.4279124637913003</v>
+      </c>
+      <c r="J45">
         <v>0.2327871573607126</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>1.172401829292606</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>0.1389823249869439</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>0.8465138464730039</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.01164474161060098</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.1840347412555406</v>
       </c>
-      <c r="N45" t="n">
-        <v>6.967017954144865</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>7.410127018678521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.29879456725822</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>5.110184889769878</v>
       </c>
-      <c r="D46" t="n">
-        <v>6.667574510787757e-05</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>7.125344011733375E-05</v>
+      </c>
+      <c r="E46">
         <v>0.02577246408934666</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.333791362056478</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>1.603529304541327</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.1062800736012939</v>
+      </c>
+      <c r="I46">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="J46">
         <v>0.3119347908633551</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>1.571018451252091</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>0.6331417027183001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>3.856340856154794</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N46" t="n">
-        <v>13.79349493516543</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>16.89516683300084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.3805814013617476</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>6.50895812602076</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E47">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>0.2986554292084276</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1.434736746168555</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.0910972059439662</v>
+      </c>
+      <c r="I47">
+        <v>2.567474782747802</v>
+      </c>
+      <c r="J47">
         <v>0.1629510101524988</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>0.820681280504824</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>0.2779646499738878</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>1.693027692946008</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N47" t="n">
-        <v>11.70399362655661</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>14.3625793483334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0.3478666677203364</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>5.949448831520404</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.001133487666833918</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.001211308481994674</v>
+      </c>
+      <c r="E48">
         <v>0.4381318895188931</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>0.474335093448679</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>2.278699538032412</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.09413377947543172</v>
+      </c>
+      <c r="I48">
+        <v>2.653057275506062</v>
+      </c>
+      <c r="J48">
         <v>0.2607216162439982</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>1.313090048807718</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>0.4015044944067267</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>2.445484445366455</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.01164474161060098</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.1840347412555406</v>
       </c>
-      <c r="N48" t="n">
-        <v>14.1060955955986</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>16.85336447139525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>0.3135161973968549</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>5.361964072295039</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.001466866392373307</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.001567575682581343</v>
+      </c>
+      <c r="E49">
         <v>0.5669942099656264</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>0.333791362056478</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>1.603529304541327</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.1396823824474148</v>
+      </c>
+      <c r="I49">
+        <v>3.936794666879964</v>
+      </c>
+      <c r="J49">
         <v>0.4516070852797825</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>2.274459548827655</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>0.4478319360690418</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>2.727655727524123</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.0262006686238522</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.4140781678249662</v>
       </c>
-      <c r="N49" t="n">
-        <v>14.52309514679712</v>
+      <c r="P49">
+        <v>18.5996729054147</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.2568106590850758</v>
+        <v>1.138295894323039</v>
       </c>
       <c r="C2">
-        <v>4.39214796182776</v>
+        <v>19.46789907404738</v>
       </c>
       <c r="D2">
-        <v>0.001425068802346675</v>
+        <v>0.006316521177969045</v>
       </c>
       <c r="E2">
-        <v>0.5154492817869332</v>
+        <v>2.284694113866406</v>
       </c>
       <c r="F2">
-        <v>0.474335093448679</v>
+        <v>2.102458252042794</v>
       </c>
       <c r="G2">
-        <v>2.278699538032412</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H2">
-        <v>0.06984119122370741</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I2">
-        <v>1.968397333439982</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J2">
-        <v>0.4748858010158539</v>
+        <v>2.104899226124325</v>
       </c>
       <c r="K2">
-        <v>2.391699731756916</v>
+        <v>10.6010474596793</v>
       </c>
       <c r="L2">
-        <v>0.8956638721380835</v>
+        <v>3.969969595422855</v>
       </c>
       <c r="M2">
-        <v>5.455311455048246</v>
+        <v>24.18029942237601</v>
       </c>
       <c r="N2">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O2">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P2">
-        <v>19.3214265997556</v>
+        <v>85.64091790161943</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.2573559046457661</v>
+        <v>1.140712658429883</v>
       </c>
       <c r="C3">
-        <v>4.401473116736103</v>
+        <v>19.50923219310055</v>
       </c>
       <c r="D3">
-        <v>0.001638829122698676</v>
+        <v>0.007263999354664404</v>
       </c>
       <c r="E3">
-        <v>0.5927666740549731</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="F3">
-        <v>0.474335093448679</v>
+        <v>2.102458252042794</v>
       </c>
       <c r="G3">
-        <v>2.278699538032412</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H3">
-        <v>0.07287776475517294</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I3">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J3">
-        <v>0.4888530304574965</v>
+        <v>2.166808026892687</v>
       </c>
       <c r="K3">
-        <v>2.462043841514472</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="L3">
-        <v>0.7566815471511389</v>
+        <v>3.353939830615861</v>
       </c>
       <c r="M3">
-        <v>4.608797608575242</v>
+        <v>20.42818399476594</v>
       </c>
       <c r="N3">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O3">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P3">
-        <v>18.596262386842</v>
+        <v>82.42667652546184</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.2628083602526679</v>
+        <v>1.164880299498312</v>
       </c>
       <c r="C4">
-        <v>4.494724665819492</v>
+        <v>19.92256338363234</v>
       </c>
       <c r="D4">
-        <v>0.0009975481616426726</v>
+        <v>0.004421564824578333</v>
       </c>
       <c r="E4">
-        <v>0.3608144972508532</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="F4">
-        <v>0.3162233956324529</v>
+        <v>1.401638834695196</v>
       </c>
       <c r="G4">
-        <v>1.519133025354941</v>
+        <v>6.733454490762441</v>
       </c>
       <c r="H4">
-        <v>0.05769489709784525</v>
+        <v>0.2557287330823411</v>
       </c>
       <c r="I4">
-        <v>1.626067362406941</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="J4">
-        <v>0.3538364791882832</v>
+        <v>1.56835628613185</v>
       </c>
       <c r="K4">
-        <v>1.78205078052476</v>
+        <v>7.898819675839478</v>
       </c>
       <c r="L4">
-        <v>0.5096018582854608</v>
+        <v>2.258775804292313</v>
       </c>
       <c r="M4">
-        <v>3.103884103734346</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="N4">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O4">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P4">
-        <v>14.48567671514276</v>
+        <v>64.20678327793006</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.3047922684258121</v>
+        <v>1.350971135725221</v>
       </c>
       <c r="C5">
-        <v>5.212761593761611</v>
+        <v>23.10521355072713</v>
       </c>
       <c r="D5">
-        <v>0.002208856643637346</v>
+        <v>0.009790607825852018</v>
       </c>
       <c r="E5">
-        <v>0.7989463867697463</v>
+        <v>3.541275876492929</v>
       </c>
       <c r="F5">
-        <v>0.6324467912649058</v>
+        <v>2.803277669390393</v>
       </c>
       <c r="G5">
-        <v>3.038266050709882</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H5">
-        <v>0.05465832356637971</v>
+        <v>0.2422693260780073</v>
       </c>
       <c r="I5">
-        <v>1.540484869648681</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="J5">
-        <v>0.5121317461935677</v>
+        <v>2.269989361506625</v>
       </c>
       <c r="K5">
-        <v>2.579284024443731</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="L5">
-        <v>0.5713717805018802</v>
+        <v>2.5325668108732</v>
       </c>
       <c r="M5">
-        <v>3.480112479944571</v>
+        <v>15.42536342461918</v>
       </c>
       <c r="N5">
-        <v>0.01455592701325122</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O5">
-        <v>0.2300434265694257</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P5">
-        <v>18.97206452545709</v>
+        <v>84.09239411283679</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.3200591441251371</v>
+        <v>1.418640530716825</v>
       </c>
       <c r="C6">
-        <v>5.473865931195109</v>
+        <v>24.26254088421614</v>
       </c>
       <c r="D6">
-        <v>0.001353815362229341</v>
+        <v>0.006000695119070593</v>
       </c>
       <c r="E6">
-        <v>0.4896768176975864</v>
+        <v>2.170459408173086</v>
       </c>
       <c r="F6">
-        <v>0.5973108584168553</v>
+        <v>2.647540021090926</v>
       </c>
       <c r="G6">
-        <v>2.869473492337111</v>
+        <v>12.71874737144017</v>
       </c>
       <c r="H6">
-        <v>0.05769489709784525</v>
+        <v>0.2557287330823411</v>
       </c>
       <c r="I6">
-        <v>1.626067362406941</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="J6">
-        <v>0.535410461929639</v>
+        <v>2.373170696120563</v>
       </c>
       <c r="K6">
-        <v>2.696524207372993</v>
+        <v>11.95216135159921</v>
       </c>
       <c r="L6">
-        <v>0.525044338839566</v>
+        <v>2.327223555937536</v>
       </c>
       <c r="M6">
-        <v>3.197941197786904</v>
+        <v>14.17465828208249</v>
       </c>
       <c r="N6">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O6">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P6">
-        <v>18.53718213671752</v>
+        <v>82.16480730869387</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.3156971796396157</v>
+        <v>1.39930641786208</v>
       </c>
       <c r="C7">
-        <v>5.399264691928394</v>
+        <v>23.93187593179072</v>
       </c>
       <c r="D7">
-        <v>0.002778884164576017</v>
+        <v>0.01231721629703964</v>
       </c>
       <c r="E7">
-        <v>1.00512609948452</v>
+        <v>4.455153522039491</v>
       </c>
       <c r="F7">
-        <v>0.4567671270246541</v>
+        <v>2.024589427893061</v>
       </c>
       <c r="G7">
-        <v>2.194303258846026</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="H7">
-        <v>0.07287776475517294</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I7">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J7">
-        <v>0.5121317461935677</v>
+        <v>2.269989361506625</v>
       </c>
       <c r="K7">
-        <v>2.579284024443731</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="L7">
-        <v>0.5096018582854608</v>
+        <v>2.258775804292313</v>
       </c>
       <c r="M7">
-        <v>3.103884103734346</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="N7">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O7">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P7">
-        <v>18.35245617684791</v>
+        <v>81.34602197305563</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.3691312445872535</v>
+        <v>1.636149300332691</v>
       </c>
       <c r="C8">
-        <v>6.313129872945636</v>
+        <v>27.98252159900228</v>
       </c>
       <c r="D8">
-        <v>0.003135151365162685</v>
+        <v>0.0138963465915319</v>
       </c>
       <c r="E8">
-        <v>1.133988419931253</v>
+        <v>5.026327050506093</v>
       </c>
       <c r="F8">
-        <v>0.6324467912649058</v>
+        <v>2.803277669390393</v>
       </c>
       <c r="G8">
-        <v>3.038266050709882</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H8">
-        <v>0.07591433828663846</v>
+        <v>0.3364851751083435</v>
       </c>
       <c r="I8">
-        <v>2.139562318956502</v>
+        <v>9.483465413753141</v>
       </c>
       <c r="J8">
-        <v>0.3817709380715687</v>
+        <v>1.692173887668575</v>
       </c>
       <c r="K8">
-        <v>1.922739000039873</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="L8">
-        <v>0.386062013852622</v>
+        <v>1.71119379113054</v>
       </c>
       <c r="M8">
-        <v>2.351427351313899</v>
+        <v>10.42254285447242</v>
       </c>
       <c r="N8">
-        <v>0.0203782978185517</v>
+        <v>0.09032542816871564</v>
       </c>
       <c r="O8">
-        <v>0.3220607971971959</v>
+        <v>1.427512722711895</v>
       </c>
       <c r="P8">
-        <v>19.09001258634094</v>
+        <v>84.61519092324093</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,43 +830,43 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.4274725195811033</v>
+        <v>1.894743059764889</v>
       </c>
       <c r="C9">
-        <v>7.310921448137934</v>
+        <v>32.40516533769243</v>
       </c>
       <c r="D9">
-        <v>0.0008550412814080053</v>
+        <v>0.003789912706781427</v>
       </c>
       <c r="E9">
-        <v>0.3092695690721599</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="F9">
-        <v>0.3864952613285535</v>
+        <v>1.713114131294128</v>
       </c>
       <c r="G9">
-        <v>1.856718142100483</v>
+        <v>8.229777710931875</v>
       </c>
       <c r="H9">
-        <v>0.06680461769224183</v>
+        <v>0.2961069540953423</v>
       </c>
       <c r="I9">
-        <v>1.882814840681722</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="J9">
-        <v>0.2840003319800695</v>
+        <v>1.258812282290037</v>
       </c>
       <c r="K9">
-        <v>1.430330231736979</v>
+        <v>6.33984210823958</v>
       </c>
       <c r="L9">
-        <v>0.3242920916362025</v>
+        <v>1.437402784549655</v>
       </c>
       <c r="M9">
-        <v>1.975198975103675</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="P9">
-        <v>16.25517307033253</v>
+        <v>72.04995631174417</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.4083889249569467</v>
+        <v>1.810156316025384</v>
       </c>
       <c r="C10">
-        <v>6.984541026346058</v>
+        <v>30.95850617083117</v>
       </c>
       <c r="D10">
-        <v>0.0004987740808213363</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E10">
-        <v>0.1804072486254266</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F10">
-        <v>0.3689272949045282</v>
+        <v>1.635245307144395</v>
       </c>
       <c r="G10">
-        <v>1.772321862914098</v>
+        <v>7.855696905889514</v>
       </c>
       <c r="H10">
-        <v>0.1093166471327594</v>
+        <v>0.4845386521560146</v>
       </c>
       <c r="I10">
-        <v>3.080969739297363</v>
+        <v>13.65619019580452</v>
       </c>
       <c r="J10">
-        <v>0.2281314142134984</v>
+        <v>1.011177079216588</v>
       </c>
       <c r="K10">
-        <v>1.148953792706753</v>
+        <v>5.092660054159663</v>
       </c>
       <c r="L10">
-        <v>0.1698672860951538</v>
+        <v>0.752925268097438</v>
       </c>
       <c r="M10">
-        <v>1.034628034578116</v>
+        <v>4.585918855967866</v>
       </c>
       <c r="N10">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O10">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P10">
-        <v>15.53587191656806</v>
+        <v>68.86170254911245</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.2949778483333887</v>
+        <v>1.307469381802047</v>
       </c>
       <c r="C11">
-        <v>5.044908805411505</v>
+        <v>22.36121740776992</v>
       </c>
       <c r="D11">
-        <v>0.0004275206407040026</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E11">
-        <v>0.15463478453608</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F11">
-        <v>0.2986554292084276</v>
+        <v>1.323770010545463</v>
       </c>
       <c r="G11">
-        <v>1.434736746168555</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="H11">
-        <v>0.0910972059439662</v>
+        <v>0.4037822101300122</v>
       </c>
       <c r="I11">
-        <v>2.567474782747802</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="J11">
-        <v>0.1024263492387136</v>
+        <v>0.453997872301325</v>
       </c>
       <c r="K11">
-        <v>0.5158568048887464</v>
+        <v>2.286500432479849</v>
       </c>
       <c r="L11">
-        <v>0.262522169419783</v>
+        <v>1.163611777968768</v>
       </c>
       <c r="M11">
-        <v>1.598970598893452</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="N11">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O11">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P11">
-        <v>12.41560891614766</v>
+        <v>55.03134762833018</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.2649893424954287</v>
+        <v>1.174547355925684</v>
       </c>
       <c r="C12">
-        <v>4.532025285452849</v>
+        <v>20.08789585984506</v>
       </c>
       <c r="D12">
-        <v>0.001282561922112007</v>
+        <v>0.00568486906017214</v>
       </c>
       <c r="E12">
-        <v>0.4639043536082399</v>
+        <v>2.056224702479765</v>
       </c>
       <c r="F12">
-        <v>0.2635194963603775</v>
+        <v>1.168032362245996</v>
       </c>
       <c r="G12">
-        <v>1.265944187795784</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H12">
-        <v>0.07895091181810404</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I12">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J12">
-        <v>0.09777060609149933</v>
+        <v>0.4333616053785375</v>
       </c>
       <c r="K12">
-        <v>0.4924087683028943</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="L12">
-        <v>0.1389823249869439</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M12">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N12">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O12">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P12">
-        <v>10.72035636773853</v>
+        <v>47.51725525159782</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.1930169284843246</v>
+        <v>0.8555344938224116</v>
       </c>
       <c r="C13">
-        <v>3.301104837552074</v>
+        <v>14.63192414482541</v>
       </c>
       <c r="D13">
-        <v>0.000285013760469335</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E13">
-        <v>0.1030898563573866</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F13">
-        <v>0.2283835635123271</v>
+        <v>1.012294713946531</v>
       </c>
       <c r="G13">
-        <v>1.097151629423013</v>
+        <v>4.863050465550652</v>
       </c>
       <c r="H13">
-        <v>0.07895091181810404</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I13">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J13">
-        <v>0.07449189035542805</v>
+        <v>0.3301802707645999</v>
       </c>
       <c r="K13">
-        <v>0.3751685853736337</v>
+        <v>1.66290940543989</v>
       </c>
       <c r="L13">
-        <v>0.1235398444328391</v>
+        <v>0.5475820131617729</v>
       </c>
       <c r="M13">
-        <v>0.7524567524204477</v>
+        <v>3.335213713431174</v>
       </c>
       <c r="N13">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O13">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P13">
-        <v>8.601704495921343</v>
+        <v>38.12647398192163</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.09923469204561315</v>
+        <v>0.4398510674454206</v>
       </c>
       <c r="C14">
-        <v>1.697178193317734</v>
+        <v>7.522627667678602</v>
       </c>
       <c r="D14">
-        <v>0.0001425068802346675</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E14">
-        <v>0.05154492817869331</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F14">
-        <v>0.08783983212012578</v>
+        <v>0.3893441207486655</v>
       </c>
       <c r="G14">
-        <v>0.4219813959319281</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="H14">
-        <v>0.05162175003491416</v>
+        <v>0.2288099190736735</v>
       </c>
       <c r="I14">
-        <v>1.454902376890421</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="J14">
-        <v>0.05586891776657103</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K14">
-        <v>0.2813764390302253</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L14">
-        <v>0.04632744166231463</v>
+        <v>0.2053432549356649</v>
       </c>
       <c r="M14">
-        <v>0.2821712821576679</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="P14">
-        <v>4.530189756016443</v>
+        <v>20.07975999964045</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,43 +1118,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.08069634298214701</v>
+        <v>0.3576810878127596</v>
       </c>
       <c r="C15">
-        <v>1.380122926434201</v>
+        <v>6.117301619870513</v>
       </c>
       <c r="D15">
-        <v>0.0004987740808213363</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E15">
-        <v>0.1804072486254266</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F15">
-        <v>0.1405437313922012</v>
+        <v>0.6229505931978648</v>
       </c>
       <c r="G15">
-        <v>0.6751702334910848</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H15">
-        <v>0.01821944118879323</v>
+        <v>0.08075644202600243</v>
       </c>
       <c r="I15">
-        <v>0.5134949565495605</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="J15">
-        <v>0.1396722944164276</v>
+        <v>0.6190880076836249</v>
       </c>
       <c r="K15">
-        <v>0.7034410975755631</v>
+        <v>3.117955135199794</v>
       </c>
       <c r="L15">
-        <v>0.07721240277052442</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M15">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P15">
-        <v>4.379764919769531</v>
+        <v>19.4130120768163</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1162,31 +1162,31 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.06597471284351207</v>
+        <v>0.2924284569279995</v>
       </c>
       <c r="C16">
-        <v>1.128343743909042</v>
+        <v>5.001307405434676</v>
       </c>
       <c r="D16">
-        <v>0.0004275206407040026</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E16">
-        <v>0.15463478453608</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="J16">
-        <v>0.06052466091378529</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K16">
-        <v>0.3048244756160774</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L16">
-        <v>0.07721240277052442</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M16">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P16">
-        <v>2.262227771492506</v>
+        <v>10.02717174391273</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1194,37 +1194,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.03598620700555203</v>
+        <v>0.1595064310516361</v>
       </c>
       <c r="C17">
-        <v>0.6154602239503871</v>
+        <v>2.727985857509822</v>
       </c>
       <c r="D17">
-        <v>7.125344011733375E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E17">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F17">
-        <v>0.05270389927207547</v>
+        <v>0.2336064724491993</v>
       </c>
       <c r="G17">
-        <v>0.2531888375591568</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="J17">
-        <v>0.04190168832492826</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K17">
-        <v>0.211032329272669</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L17">
-        <v>0.03088496110820976</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M17">
-        <v>0.1881141881051119</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P17">
-        <v>1.455116052127555</v>
+        <v>6.449703582403212</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1232,37 +1232,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.02835276915588949</v>
+        <v>0.1256717335558344</v>
       </c>
       <c r="C18">
-        <v>0.4849080552336381</v>
+        <v>2.149322190765315</v>
       </c>
       <c r="D18">
-        <v>7.125344011733375E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E18">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F18">
-        <v>0.01756796642402515</v>
+        <v>0.0778688241497331</v>
       </c>
       <c r="G18">
-        <v>0.08439627918638561</v>
+        <v>0.3740808050423579</v>
       </c>
       <c r="J18">
-        <v>0.02327871573607126</v>
+        <v>0.1031813346139375</v>
       </c>
       <c r="K18">
-        <v>0.1172401829292605</v>
+        <v>0.5196591891999656</v>
       </c>
       <c r="L18">
-        <v>0.06176992221641953</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M18">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="P18">
-        <v>1.219585984621377</v>
+        <v>5.405732472375836</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,43 +1270,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.02726227803450912</v>
+        <v>0.1208382053421485</v>
       </c>
       <c r="C19">
-        <v>0.4662577454169597</v>
+        <v>2.066655952658956</v>
       </c>
       <c r="D19">
-        <v>0.0003562672005866687</v>
+        <v>0.001579130294492261</v>
       </c>
       <c r="E19">
-        <v>0.1288623204467333</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="F19">
-        <v>0.0351359328480503</v>
+        <v>0.1557376482994662</v>
       </c>
       <c r="G19">
-        <v>0.1687925583727712</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="H19">
-        <v>0.01214629412586216</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I19">
-        <v>0.3423299710330403</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J19">
-        <v>0.05586891776657103</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K19">
-        <v>0.2813764390302253</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L19">
-        <v>0.06176992221641953</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M19">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="P19">
-        <v>1.956387022701952</v>
+        <v>8.67155328981406</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1314,31 +1314,31 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.05016259158349679</v>
+        <v>0.2223422978295534</v>
       </c>
       <c r="C20">
-        <v>0.8579142515672064</v>
+        <v>3.80264695289248</v>
       </c>
       <c r="D20">
-        <v>0.0001425068802346675</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E20">
-        <v>0.05154492817869331</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="J20">
-        <v>0.05121317461935679</v>
+        <v>0.2269989361506625</v>
       </c>
       <c r="K20">
-        <v>0.2579284024443732</v>
+        <v>1.143250216239925</v>
       </c>
       <c r="L20">
-        <v>0.1389823249869439</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M20">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="P20">
-        <v>2.254402026733309</v>
+        <v>9.992484659034126</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,49 +1346,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.1690261238139566</v>
+        <v>0.7491968731213211</v>
       </c>
       <c r="C21">
-        <v>2.89079802158515</v>
+        <v>12.81326690648553</v>
       </c>
       <c r="D21">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E21">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F21">
-        <v>0.3864952613285535</v>
+        <v>1.713114131294128</v>
       </c>
       <c r="G21">
-        <v>1.856718142100483</v>
+        <v>8.229777710931875</v>
       </c>
       <c r="H21">
-        <v>0.01821944118879323</v>
+        <v>0.08075644202600243</v>
       </c>
       <c r="I21">
-        <v>0.5134949565495605</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="J21">
-        <v>0.1722624964469273</v>
+        <v>0.7635418761431374</v>
       </c>
       <c r="K21">
-        <v>0.867577353676528</v>
+        <v>3.845478000079746</v>
       </c>
       <c r="L21">
-        <v>0.1389823249869439</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M21">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N21">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O21">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P21">
-        <v>8.035458862171362</v>
+        <v>35.61662847016497</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1396,49 +1396,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.2895253927264868</v>
+        <v>1.283301740733618</v>
       </c>
       <c r="C22">
-        <v>4.951657256328112</v>
+        <v>21.94788621723812</v>
       </c>
       <c r="D22">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E22">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F22">
-        <v>0.5094710262967296</v>
+        <v>2.25819590034226</v>
       </c>
       <c r="G22">
-        <v>2.447492096405183</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="H22">
-        <v>0.1062800736012939</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I22">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J22">
-        <v>0.3072790477161407</v>
+        <v>1.361993616903975</v>
       </c>
       <c r="K22">
-        <v>1.547570414666239</v>
+        <v>6.859501297439547</v>
       </c>
       <c r="L22">
-        <v>0.4787168971772515</v>
+        <v>2.121880301001871</v>
       </c>
       <c r="M22">
-        <v>2.915769915629236</v>
+        <v>12.9239531395458</v>
       </c>
       <c r="N22">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O22">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P22">
-        <v>16.67560039039071</v>
+        <v>73.91347200065069</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1446,49 +1446,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.3740384546334652</v>
+        <v>1.657900177294278</v>
       </c>
       <c r="C23">
-        <v>6.397056267120689</v>
+        <v>28.35451967048089</v>
       </c>
       <c r="D23">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E23">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F23">
-        <v>0.2459515299363522</v>
+        <v>1.090163538096263</v>
       </c>
       <c r="G23">
-        <v>1.181547908609399</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H23">
-        <v>0.09717035300689729</v>
+        <v>0.4307010241386797</v>
       </c>
       <c r="I23">
-        <v>2.738639768264322</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="J23">
-        <v>0.1815739827413559</v>
+        <v>0.8048144099887126</v>
       </c>
       <c r="K23">
-        <v>0.9144734268482323</v>
+        <v>4.053341675759731</v>
       </c>
       <c r="L23">
-        <v>0.2470796888656781</v>
+        <v>1.095164026323546</v>
       </c>
       <c r="M23">
-        <v>1.504913504840895</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="N23">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O23">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P23">
-        <v>14.05781577888875</v>
+        <v>62.31031858750688</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1496,49 +1496,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.3625882978589714</v>
+        <v>1.607148131050576</v>
       </c>
       <c r="C24">
-        <v>6.201228014045566</v>
+        <v>27.48652417036413</v>
       </c>
       <c r="D24">
-        <v>0.00114005504187734</v>
+        <v>0.005053216942375235</v>
       </c>
       <c r="E24">
-        <v>0.4123594254295465</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="F24">
-        <v>0.4216311941766038</v>
+        <v>1.868851779593595</v>
       </c>
       <c r="G24">
-        <v>2.025510700473255</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H24">
-        <v>0.08502405888103508</v>
+        <v>0.3768633961213446</v>
       </c>
       <c r="I24">
-        <v>2.396309797231282</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="J24">
-        <v>0.2514101299495696</v>
+        <v>1.114358413830525</v>
       </c>
       <c r="K24">
-        <v>1.266193975636013</v>
+        <v>5.612319243359629</v>
       </c>
       <c r="L24">
-        <v>0.4478319360690418</v>
+        <v>1.984984797711428</v>
       </c>
       <c r="M24">
-        <v>2.727655727524123</v>
+        <v>12.090149711188</v>
       </c>
       <c r="N24">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O24">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P24">
-        <v>16.74564292446649</v>
+        <v>74.22393080033798</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1546,49 +1546,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.3135161973968549</v>
+        <v>1.389639361434708</v>
       </c>
       <c r="C25">
-        <v>5.361964072295039</v>
+        <v>23.766543455578</v>
       </c>
       <c r="D25">
-        <v>0.001567575682581343</v>
+        <v>0.006948173295765951</v>
       </c>
       <c r="E25">
-        <v>0.5669942099656264</v>
+        <v>2.513163525253046</v>
       </c>
       <c r="F25">
-        <v>0.333791362056478</v>
+        <v>1.479507658844929</v>
       </c>
       <c r="G25">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H25">
-        <v>0.1396823824474148</v>
+        <v>0.6191327221993519</v>
       </c>
       <c r="I25">
-        <v>3.936794666879964</v>
+        <v>17.44957636130578</v>
       </c>
       <c r="J25">
-        <v>0.4516070852797825</v>
+        <v>2.001717891510387</v>
       </c>
       <c r="K25">
-        <v>2.274459548827655</v>
+        <v>10.08138827047933</v>
       </c>
       <c r="L25">
-        <v>0.4478319360690418</v>
+        <v>1.984984797711428</v>
       </c>
       <c r="M25">
-        <v>2.727655727524123</v>
+        <v>12.090149711188</v>
       </c>
       <c r="N25">
-        <v>0.0262006686238522</v>
+        <v>0.1161326933597773</v>
       </c>
       <c r="O25">
-        <v>0.4140781678249662</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="P25">
-        <v>18.5996729054147</v>
+        <v>82.4417934185949</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1596,49 +1596,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.2644440969347387</v>
+        <v>1.17213059181884</v>
       </c>
       <c r="C26">
-        <v>4.522700130544507</v>
+        <v>20.04656274079188</v>
       </c>
       <c r="D26">
-        <v>0.001211308481994674</v>
+        <v>0.005369043001273689</v>
       </c>
       <c r="E26">
-        <v>0.4381318895188931</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="F26">
-        <v>0.4216311941766038</v>
+        <v>1.868851779593595</v>
       </c>
       <c r="G26">
-        <v>2.025510700473255</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H26">
-        <v>0.06984119122370741</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I26">
-        <v>1.968397333439982</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J26">
-        <v>0.5074760030463535</v>
+        <v>2.249353094583837</v>
       </c>
       <c r="K26">
-        <v>2.55583598785788</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="L26">
-        <v>1.065531158233237</v>
+        <v>4.722894863520294</v>
       </c>
       <c r="M26">
-        <v>6.489939489626361</v>
+        <v>28.76621827834387</v>
       </c>
       <c r="N26">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O26">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P26">
-        <v>20.47741009570712</v>
+        <v>90.76473664043156</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1646,49 +1646,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.2497224667961035</v>
+        <v>1.10687796093408</v>
       </c>
       <c r="C27">
-        <v>4.270920948019354</v>
+        <v>18.93056852635604</v>
       </c>
       <c r="D27">
-        <v>0.001852589443050677</v>
+        <v>0.00821147753135976</v>
       </c>
       <c r="E27">
-        <v>0.6700840663230131</v>
+        <v>2.970102348026328</v>
       </c>
       <c r="F27">
-        <v>0.4216311941766038</v>
+        <v>1.868851779593595</v>
       </c>
       <c r="G27">
-        <v>2.025510700473255</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H27">
-        <v>0.06073147062931077</v>
+        <v>0.2691881400866747</v>
       </c>
       <c r="I27">
-        <v>1.711649855165201</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="J27">
-        <v>0.5540334345184963</v>
+        <v>2.455715763811713</v>
       </c>
       <c r="K27">
-        <v>2.790316353716401</v>
+        <v>12.36788870295918</v>
       </c>
       <c r="L27">
-        <v>0.9728762749086072</v>
+        <v>4.312208353648961</v>
       </c>
       <c r="M27">
-        <v>5.925596925311027</v>
+        <v>26.26480799327049</v>
       </c>
       <c r="N27">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O27">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P27">
-        <v>19.75276602091349</v>
+        <v>87.55280074134629</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1696,49 +1696,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.2469962389926526</v>
+        <v>1.094794140399865</v>
       </c>
       <c r="C28">
-        <v>4.224295173477655</v>
+        <v>18.72390293109015</v>
       </c>
       <c r="D28">
-        <v>0.0007837878412906713</v>
+        <v>0.003474086647882975</v>
       </c>
       <c r="E28">
-        <v>0.2834971049828132</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="F28">
-        <v>0.2459515299363522</v>
+        <v>1.090163538096263</v>
       </c>
       <c r="G28">
-        <v>1.181547908609399</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H28">
-        <v>0.07287776475517294</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I28">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J28">
-        <v>0.2979675614217122</v>
+        <v>1.3207210830584</v>
       </c>
       <c r="K28">
-        <v>1.500674341494535</v>
+        <v>6.651637621759559</v>
       </c>
       <c r="L28">
-        <v>0.525044338839566</v>
+        <v>2.327223555937536</v>
       </c>
       <c r="M28">
-        <v>3.197941197786904</v>
+        <v>14.17465828208249</v>
       </c>
       <c r="N28">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O28">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P28">
-        <v>13.9783163864859</v>
+        <v>61.95794290226183</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1746,49 +1746,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.3053375139865021</v>
+        <v>1.353387899832064</v>
       </c>
       <c r="C29">
-        <v>5.22208674866995</v>
+        <v>23.14654666978031</v>
       </c>
       <c r="D29">
-        <v>0.002208856643637346</v>
+        <v>0.009790607825852018</v>
       </c>
       <c r="E29">
-        <v>0.7989463867697463</v>
+        <v>3.541275876492929</v>
       </c>
       <c r="F29">
-        <v>0.790558489081132</v>
+        <v>3.504097086737989</v>
       </c>
       <c r="G29">
-        <v>3.797832563387352</v>
+        <v>16.8336362269061</v>
       </c>
       <c r="H29">
-        <v>0.0910972059439662</v>
+        <v>0.4037822101300122</v>
       </c>
       <c r="I29">
-        <v>2.567474782747802</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="J29">
-        <v>0.4888530304574965</v>
+        <v>2.166808026892687</v>
       </c>
       <c r="K29">
-        <v>2.462043841514472</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="L29">
-        <v>0.7875665082593486</v>
+        <v>3.490835333906303</v>
       </c>
       <c r="M29">
-        <v>4.796911796680354</v>
+        <v>21.26198742312373</v>
       </c>
       <c r="N29">
-        <v>0.02328948322120195</v>
+        <v>0.1032290607642464</v>
       </c>
       <c r="O29">
-        <v>0.3680694825110811</v>
+        <v>1.631443111670737</v>
       </c>
       <c r="P29">
-        <v>22.50227668987404</v>
+        <v>99.739821003766</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1796,49 +1796,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.2720775347844011</v>
+        <v>1.205965289314642</v>
       </c>
       <c r="C30">
-        <v>4.653252299261259</v>
+        <v>20.62522640753638</v>
       </c>
       <c r="D30">
-        <v>0.001068801601760006</v>
+        <v>0.004737390883476786</v>
       </c>
       <c r="E30">
-        <v>0.3865869613402</v>
+        <v>1.713520585399804</v>
       </c>
       <c r="F30">
-        <v>0.6324467912649058</v>
+        <v>2.803277669390393</v>
       </c>
       <c r="G30">
-        <v>3.038266050709882</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H30">
-        <v>0.04858517650344864</v>
+        <v>0.2153505120693398</v>
       </c>
       <c r="I30">
-        <v>1.369319884132161</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="J30">
-        <v>0.5447219482240676</v>
+        <v>2.414443229966138</v>
       </c>
       <c r="K30">
-        <v>2.743420280544697</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="L30">
-        <v>0.386062013852622</v>
+        <v>1.71119379113054</v>
       </c>
       <c r="M30">
-        <v>2.351427351313899</v>
+        <v>10.42254285447242</v>
       </c>
       <c r="N30">
-        <v>0.01164474161060098</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O30">
-        <v>0.1840347412555406</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P30">
-        <v>16.62291457639945</v>
+        <v>73.67994568998671</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1846,49 +1846,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.3249663541713489</v>
+        <v>1.440391407678411</v>
       </c>
       <c r="C31">
-        <v>5.557792325370158</v>
+        <v>24.63453895569476</v>
       </c>
       <c r="D31">
-        <v>0.001852589443050677</v>
+        <v>0.00821147753135976</v>
       </c>
       <c r="E31">
-        <v>0.6700840663230131</v>
+        <v>2.970102348026328</v>
       </c>
       <c r="F31">
-        <v>0.6148788248408804</v>
+        <v>2.72540884524066</v>
       </c>
       <c r="G31">
-        <v>2.953869771523497</v>
+        <v>13.09282817648253</v>
       </c>
       <c r="H31">
-        <v>0.06073147062931077</v>
+        <v>0.2691881400866747</v>
       </c>
       <c r="I31">
-        <v>1.711649855165201</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="J31">
-        <v>0.4655743147214253</v>
+        <v>2.063626692278749</v>
       </c>
       <c r="K31">
-        <v>2.344803658585211</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="L31">
-        <v>0.5404868193936709</v>
+        <v>2.395671307582756</v>
       </c>
       <c r="M31">
-        <v>3.291998291839459</v>
+        <v>14.59155999626138</v>
       </c>
       <c r="N31">
-        <v>0.01455592701325122</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O31">
-        <v>0.2300434265694257</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P31">
-        <v>18.7832876955889</v>
+        <v>83.2556535696373</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1896,49 +1896,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.3773099279976065</v>
+        <v>1.672400761935336</v>
       </c>
       <c r="C32">
-        <v>6.453007196570721</v>
+        <v>28.60251838479996</v>
       </c>
       <c r="D32">
-        <v>0.002636377284341349</v>
+        <v>0.01168556417924273</v>
       </c>
       <c r="E32">
-        <v>0.9535811713058264</v>
+        <v>4.226684110652851</v>
       </c>
       <c r="F32">
-        <v>0.57974289199283</v>
+        <v>2.569671196941194</v>
       </c>
       <c r="G32">
-        <v>2.785077213150725</v>
+        <v>12.34466656639781</v>
       </c>
       <c r="H32">
-        <v>0.07287776475517294</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I32">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J32">
-        <v>0.3817709380715687</v>
+        <v>1.692173887668575</v>
       </c>
       <c r="K32">
-        <v>1.922739000039873</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="L32">
-        <v>0.6949116249347198</v>
+        <v>3.080148824034973</v>
       </c>
       <c r="M32">
-        <v>4.232569232365019</v>
+        <v>18.76057713805035</v>
       </c>
       <c r="N32">
-        <v>0.01455592701325122</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O32">
-        <v>0.2300434265694257</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P32">
-        <v>20.75480251824932</v>
+        <v>91.99425981061862</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1946,43 +1946,43 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.4340154663093854</v>
+        <v>1.923744229047004</v>
       </c>
       <c r="C33">
-        <v>7.422823307037998</v>
+        <v>32.90116276633059</v>
       </c>
       <c r="D33">
-        <v>0.0006412809610560037</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E33">
-        <v>0.2319521768041199</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F33">
-        <v>0.2810874627844024</v>
+        <v>1.24590118639573</v>
       </c>
       <c r="G33">
-        <v>1.35034046698217</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="H33">
-        <v>0.06073147062931077</v>
+        <v>0.2691881400866747</v>
       </c>
       <c r="I33">
-        <v>1.711649855165201</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="J33">
-        <v>0.2467543868023554</v>
+        <v>1.093722146907737</v>
       </c>
       <c r="K33">
-        <v>1.242745939050162</v>
+        <v>5.508387405519635</v>
       </c>
       <c r="L33">
-        <v>0.2934071305279928</v>
+        <v>1.30050728125921</v>
       </c>
       <c r="M33">
-        <v>1.787084786998563</v>
+        <v>7.921132569399039</v>
       </c>
       <c r="P33">
-        <v>15.06323373005272</v>
+        <v>66.76676572239582</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1990,49 +1990,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>0.4503728331300905</v>
+        <v>1.996247152252294</v>
       </c>
       <c r="C34">
-        <v>7.702577954288175</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="D34">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E34">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F34">
-        <v>0.2459515299363522</v>
+        <v>1.090163538096263</v>
       </c>
       <c r="G34">
-        <v>1.181547908609399</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H34">
-        <v>0.1062800736012939</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I34">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J34">
-        <v>0.2514101299495696</v>
+        <v>1.114358413830525</v>
       </c>
       <c r="K34">
-        <v>1.266193975636013</v>
+        <v>5.612319243359629</v>
       </c>
       <c r="L34">
-        <v>0.1080973638787342</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M34">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="N34">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O34">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P34">
-        <v>15.14158956795809</v>
+        <v>67.114072679598</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2040,49 +2040,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.3151519340789254</v>
+        <v>1.396889653755237</v>
       </c>
       <c r="C35">
-        <v>5.389939537020056</v>
+        <v>23.89054281273754</v>
       </c>
       <c r="D35">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E35">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F35">
-        <v>0.2283835635123271</v>
+        <v>1.012294713946531</v>
       </c>
       <c r="G35">
-        <v>1.097151629423013</v>
+        <v>4.863050465550652</v>
       </c>
       <c r="H35">
-        <v>0.08198748534956958</v>
+        <v>0.363403989117011</v>
       </c>
       <c r="I35">
-        <v>2.310727304473023</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="J35">
-        <v>0.1303608081219991</v>
+        <v>0.5778154738380499</v>
       </c>
       <c r="K35">
-        <v>0.656545024403859</v>
+        <v>2.910091459519808</v>
       </c>
       <c r="L35">
-        <v>0.3242920916362025</v>
+        <v>1.437402784549655</v>
       </c>
       <c r="M35">
-        <v>1.975198975103675</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="N35">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O35">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P35">
-        <v>12.68510924714411</v>
+        <v>56.22588963599011</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2090,49 +2090,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.2998850583796002</v>
+        <v>1.329220258763633</v>
       </c>
       <c r="C36">
-        <v>5.128835199586558</v>
+        <v>22.73321547924851</v>
       </c>
       <c r="D36">
-        <v>0.0004275206407040026</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E36">
-        <v>0.15463478453608</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F36">
-        <v>0.1581116978162264</v>
+        <v>0.7008194173475982</v>
       </c>
       <c r="G36">
-        <v>0.7595665126774706</v>
+        <v>3.36672724538122</v>
       </c>
       <c r="H36">
-        <v>0.1002069265383628</v>
+        <v>0.4441604311430135</v>
       </c>
       <c r="I36">
-        <v>2.824222261022583</v>
+        <v>12.51817434615415</v>
       </c>
       <c r="J36">
-        <v>0.1117378355331421</v>
+        <v>0.4952704061468999</v>
       </c>
       <c r="K36">
-        <v>0.5627528780604506</v>
+        <v>2.494364108159835</v>
       </c>
       <c r="L36">
-        <v>0.1389823249869439</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M36">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N36">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O36">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P36">
-        <v>11.1837165876842</v>
+        <v>49.57106811838399</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2140,49 +2140,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.2115552775477908</v>
+        <v>0.9377044734550724</v>
       </c>
       <c r="C37">
-        <v>3.618160104435608</v>
+        <v>16.03725019263351</v>
       </c>
       <c r="D37">
-        <v>0.0001425068802346675</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E37">
-        <v>0.05154492817869331</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F37">
-        <v>0.1932476306642767</v>
+        <v>0.8565570656470642</v>
       </c>
       <c r="G37">
-        <v>0.9283590710502417</v>
+        <v>4.114888855465938</v>
       </c>
       <c r="H37">
-        <v>0.07287776475517294</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I37">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J37">
-        <v>0.1489837807108561</v>
+        <v>0.6603605415291999</v>
       </c>
       <c r="K37">
-        <v>0.7503371707472674</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="L37">
-        <v>0.1544248055410488</v>
+        <v>0.6844775164522163</v>
       </c>
       <c r="M37">
-        <v>0.9405709405255599</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="N37">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O37">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P37">
-        <v>9.222023548668064</v>
+        <v>40.87599626977197</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.1090491121380365</v>
+        <v>0.4833528213685942</v>
       </c>
       <c r="C38">
-        <v>1.865030981667839</v>
+        <v>8.266623810635824</v>
       </c>
       <c r="D38">
-        <v>0.0001425068802346675</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E38">
-        <v>0.05154492817869331</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F38">
-        <v>0.08783983212012578</v>
+        <v>0.3893441207486655</v>
       </c>
       <c r="G38">
-        <v>0.4219813959319281</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="H38">
-        <v>0.05162175003491416</v>
+        <v>0.2288099190736735</v>
       </c>
       <c r="I38">
-        <v>1.454902376890421</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="J38">
-        <v>0.06518040406099955</v>
+        <v>0.2889077369190249</v>
       </c>
       <c r="K38">
-        <v>0.3282725122019295</v>
+        <v>1.455045729759904</v>
       </c>
       <c r="L38">
-        <v>0.07721240277052442</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M38">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P38">
-        <v>4.983063673138427</v>
+        <v>22.08709303769464</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,43 +2234,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.09432748199940162</v>
+        <v>0.4181001904838339</v>
       </c>
       <c r="C39">
-        <v>1.61325179914268</v>
+        <v>7.15062959619999</v>
       </c>
       <c r="D39">
-        <v>0.0007837878412906713</v>
+        <v>0.003474086647882975</v>
       </c>
       <c r="E39">
-        <v>0.2834971049828132</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="F39">
-        <v>0.1581116978162264</v>
+        <v>0.7008194173475982</v>
       </c>
       <c r="G39">
-        <v>0.7595665126774706</v>
+        <v>3.36672724538122</v>
       </c>
       <c r="H39">
-        <v>0.01214629412586216</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I39">
-        <v>0.3423299710330403</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J39">
-        <v>0.1024263492387136</v>
+        <v>0.453997872301325</v>
       </c>
       <c r="K39">
-        <v>0.5158568048887464</v>
+        <v>2.286500432479849</v>
       </c>
       <c r="L39">
-        <v>0.06176992221641953</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M39">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="P39">
-        <v>4.320296102172889</v>
+        <v>19.14942056098253</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,31 +2278,31 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.07251765957179428</v>
+        <v>0.3214296262101152</v>
       </c>
       <c r="C40">
-        <v>1.240245602809113</v>
+        <v>5.497304834072823</v>
       </c>
       <c r="D40">
-        <v>0.0007837878412906713</v>
+        <v>0.003474086647882975</v>
       </c>
       <c r="E40">
-        <v>0.2834971049828132</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="J40">
-        <v>0.07914763350264227</v>
+        <v>0.3508165376873875</v>
       </c>
       <c r="K40">
-        <v>0.398616621959486</v>
+        <v>1.766841243279883</v>
       </c>
       <c r="L40">
-        <v>0.1080973638787342</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M40">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="P40">
-        <v>2.841305432913766</v>
+        <v>12.59389435129344</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2310,37 +2310,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.04471013597659496</v>
+        <v>0.1981746567611238</v>
       </c>
       <c r="C41">
-        <v>0.7646627024838141</v>
+        <v>3.389315762360688</v>
       </c>
       <c r="D41">
-        <v>7.125344011733375E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E41">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F41">
-        <v>0.05270389927207547</v>
+        <v>0.2336064724491993</v>
       </c>
       <c r="G41">
-        <v>0.2531888375591568</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="J41">
-        <v>0.04190168832492826</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K41">
-        <v>0.211032329272669</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L41">
-        <v>0.04632744166231463</v>
+        <v>0.2053432549356649</v>
       </c>
       <c r="M41">
-        <v>0.2821712821576679</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="P41">
-        <v>1.722542034238685</v>
+        <v>7.635051178787685</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2348,37 +2348,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.03816718924831276</v>
+        <v>0.169173487479008</v>
       </c>
       <c r="C42">
-        <v>0.6527608435837438</v>
+        <v>2.893318333722538</v>
       </c>
       <c r="D42">
-        <v>7.125344011733375E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E42">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F42">
-        <v>0.0351359328480503</v>
+        <v>0.1557376482994662</v>
       </c>
       <c r="G42">
-        <v>0.1687925583727712</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="J42">
-        <v>0.02327871573607126</v>
+        <v>0.1031813346139375</v>
       </c>
       <c r="K42">
-        <v>0.1172401829292605</v>
+        <v>0.5196591891999656</v>
       </c>
       <c r="L42">
-        <v>0.06176992221641953</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M42">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="P42">
-        <v>1.499217438674317</v>
+        <v>6.645179998448323</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2386,43 +2386,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.02780752359519931</v>
+        <v>0.1232549694489915</v>
       </c>
       <c r="C43">
-        <v>0.4755829003252989</v>
+        <v>2.107989071712135</v>
       </c>
       <c r="D43">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E43">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F43">
-        <v>0.0351359328480503</v>
+        <v>0.1557376482994662</v>
       </c>
       <c r="G43">
-        <v>0.1687925583727712</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="H43">
-        <v>0.006073147062931081</v>
+        <v>0.02691881400866748</v>
       </c>
       <c r="I43">
-        <v>0.1711649855165202</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="J43">
-        <v>0.04190168832492826</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K43">
-        <v>0.211032329272669</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L43">
-        <v>0.09265488332462926</v>
+        <v>0.4106865098713298</v>
       </c>
       <c r="M43">
-        <v>0.5643425643153358</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="P43">
-        <v>1.872019665546725</v>
+        <v>8.29760067972062</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2430,31 +2430,31 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.04961734602280658</v>
+        <v>0.2199255337227103</v>
       </c>
       <c r="C44">
-        <v>0.8485890966588668</v>
+        <v>3.761313833839301</v>
       </c>
       <c r="D44">
-        <v>0.0001425068802346675</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E44">
-        <v>0.05154492817869331</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="J44">
-        <v>0.05586891776657103</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K44">
-        <v>0.2813764390302253</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L44">
-        <v>0.1698672860951538</v>
+        <v>0.752925268097438</v>
       </c>
       <c r="M44">
-        <v>1.034628034578116</v>
+        <v>4.585918855967866</v>
       </c>
       <c r="P44">
-        <v>2.491634555210667</v>
+        <v>11.04400181228512</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.1701166149353369</v>
+        <v>0.7540304013350069</v>
       </c>
       <c r="C45">
-        <v>2.909448331401828</v>
+        <v>12.89593314459189</v>
       </c>
       <c r="D45">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E45">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F45">
-        <v>0.2108155970883019</v>
+        <v>0.9344258897967973</v>
       </c>
       <c r="G45">
-        <v>1.012755350236627</v>
+        <v>4.488969660508294</v>
       </c>
       <c r="H45">
-        <v>0.01518286765732769</v>
+        <v>0.06729703502166867</v>
       </c>
       <c r="I45">
-        <v>0.4279124637913003</v>
+        <v>1.896693082750628</v>
       </c>
       <c r="J45">
-        <v>0.2327871573607126</v>
+        <v>1.031813346139375</v>
       </c>
       <c r="K45">
-        <v>1.172401829292606</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="L45">
-        <v>0.1389823249869439</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M45">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N45">
-        <v>0.01164474161060098</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O45">
-        <v>0.1840347412555406</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P45">
-        <v>7.410127018678521</v>
+        <v>32.84488732603453</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2512,49 +2512,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.29879456725822</v>
+        <v>1.324386730549948</v>
       </c>
       <c r="C46">
-        <v>5.110184889769878</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="D46">
-        <v>7.125344011733375E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E46">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F46">
-        <v>0.333791362056478</v>
+        <v>1.479507658844929</v>
       </c>
       <c r="G46">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H46">
-        <v>0.1062800736012939</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I46">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J46">
-        <v>0.3119347908633551</v>
+        <v>1.382629883826762</v>
       </c>
       <c r="K46">
-        <v>1.571018451252091</v>
+        <v>6.963433135279539</v>
       </c>
       <c r="L46">
-        <v>0.6331417027183001</v>
+        <v>2.806357817454086</v>
       </c>
       <c r="M46">
-        <v>3.856340856154794</v>
+        <v>17.09297028133476</v>
       </c>
       <c r="N46">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O46">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P46">
-        <v>16.89516683300084</v>
+        <v>74.88668542194966</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2562,49 +2562,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.3805814013617476</v>
+        <v>1.686901346576394</v>
       </c>
       <c r="C47">
-        <v>6.50895812602076</v>
+        <v>28.85051709911903</v>
       </c>
       <c r="D47">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E47">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F47">
-        <v>0.2986554292084276</v>
+        <v>1.323770010545463</v>
       </c>
       <c r="G47">
-        <v>1.434736746168555</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="H47">
-        <v>0.0910972059439662</v>
+        <v>0.4037822101300122</v>
       </c>
       <c r="I47">
-        <v>2.567474782747802</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="J47">
-        <v>0.1629510101524988</v>
+        <v>0.7222693422975626</v>
       </c>
       <c r="K47">
-        <v>0.820681280504824</v>
+        <v>3.637614324399759</v>
       </c>
       <c r="L47">
-        <v>0.2779646499738878</v>
+        <v>1.23205952961399</v>
       </c>
       <c r="M47">
-        <v>1.693027692946008</v>
+        <v>7.504230855220143</v>
       </c>
       <c r="N47">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O47">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P47">
-        <v>14.3625793483334</v>
+        <v>63.66116251693725</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2612,49 +2612,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.3478666677203364</v>
+        <v>1.541895500165816</v>
       </c>
       <c r="C48">
-        <v>5.949448831520404</v>
+        <v>26.37052995592828</v>
       </c>
       <c r="D48">
-        <v>0.001211308481994674</v>
+        <v>0.005369043001273689</v>
       </c>
       <c r="E48">
-        <v>0.4381318895188931</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="F48">
-        <v>0.474335093448679</v>
+        <v>2.102458252042794</v>
       </c>
       <c r="G48">
-        <v>2.278699538032412</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H48">
-        <v>0.09413377947543172</v>
+        <v>0.4172416171343458</v>
       </c>
       <c r="I48">
-        <v>2.653057275506062</v>
+        <v>11.7594971130539</v>
       </c>
       <c r="J48">
-        <v>0.2607216162439982</v>
+        <v>1.1556309476761</v>
       </c>
       <c r="K48">
-        <v>1.313090048807718</v>
+        <v>5.820182919039616</v>
       </c>
       <c r="L48">
-        <v>0.4015044944067267</v>
+        <v>1.779641542775762</v>
       </c>
       <c r="M48">
-        <v>2.445484445366455</v>
+        <v>10.83944456865131</v>
       </c>
       <c r="N48">
-        <v>0.01164474161060098</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O48">
-        <v>0.1840347412555406</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P48">
-        <v>16.85336447139525</v>
+        <v>74.7013992786168</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2662,49 +2662,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.3135161973968549</v>
+        <v>1.389639361434708</v>
       </c>
       <c r="C49">
-        <v>5.361964072295039</v>
+        <v>23.766543455578</v>
       </c>
       <c r="D49">
-        <v>0.001567575682581343</v>
+        <v>0.006948173295765951</v>
       </c>
       <c r="E49">
-        <v>0.5669942099656264</v>
+        <v>2.513163525253046</v>
       </c>
       <c r="F49">
-        <v>0.333791362056478</v>
+        <v>1.479507658844929</v>
       </c>
       <c r="G49">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H49">
-        <v>0.1396823824474148</v>
+        <v>0.6191327221993519</v>
       </c>
       <c r="I49">
-        <v>3.936794666879964</v>
+        <v>17.44957636130578</v>
       </c>
       <c r="J49">
-        <v>0.4516070852797825</v>
+        <v>2.001717891510387</v>
       </c>
       <c r="K49">
-        <v>2.274459548827655</v>
+        <v>10.08138827047933</v>
       </c>
       <c r="L49">
-        <v>0.4478319360690418</v>
+        <v>1.984984797711428</v>
       </c>
       <c r="M49">
-        <v>2.727655727524123</v>
+        <v>12.090149711188</v>
       </c>
       <c r="N49">
-        <v>0.0262006686238522</v>
+        <v>0.1161326933597773</v>
       </c>
       <c r="O49">
-        <v>0.4140781678249662</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="P49">
-        <v>18.5996729054147</v>
+        <v>82.4417934185949</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.138295894323039</v>
+        <v>0.2529546431828978</v>
       </c>
       <c r="C2">
-        <v>19.46789907404738</v>
+        <v>4.326199794232749</v>
       </c>
       <c r="D2">
-        <v>0.006316521177969045</v>
+        <v>0.00140367137288201</v>
       </c>
       <c r="E2">
-        <v>2.284694113866406</v>
+        <v>0.5077098030814237</v>
       </c>
       <c r="F2">
-        <v>2.102458252042794</v>
+        <v>0.4672129448983987</v>
       </c>
       <c r="G2">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H2">
-        <v>0.3095663610996759</v>
+        <v>0.06879252468881693</v>
       </c>
       <c r="I2">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="J2">
-        <v>2.104899226124325</v>
+        <v>0.4677553835831834</v>
       </c>
       <c r="K2">
-        <v>10.6010474596793</v>
+        <v>2.355788324373178</v>
       </c>
       <c r="L2">
-        <v>3.969969595422855</v>
+        <v>0.8822154656495235</v>
       </c>
       <c r="M2">
-        <v>24.18029942237601</v>
+        <v>5.373399871639114</v>
       </c>
       <c r="N2">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O2">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P2">
-        <v>85.64091790161943</v>
+        <v>19.03131508924876</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.140712658429883</v>
+        <v>0.2534917018733072</v>
       </c>
       <c r="C3">
-        <v>19.50923219310055</v>
+        <v>4.335384931800123</v>
       </c>
       <c r="D3">
-        <v>0.007263999354664404</v>
+        <v>0.001614222078814312</v>
       </c>
       <c r="E3">
-        <v>2.627398230946367</v>
+        <v>0.5838662735436371</v>
       </c>
       <c r="F3">
-        <v>2.102458252042794</v>
+        <v>0.4672129448983987</v>
       </c>
       <c r="G3">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H3">
-        <v>0.3230257681040097</v>
+        <v>0.07178350402311326</v>
       </c>
       <c r="I3">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="J3">
-        <v>2.166808026892687</v>
+        <v>0.4815128948650416</v>
       </c>
       <c r="K3">
-        <v>10.91284297319928</v>
+        <v>2.425076216266507</v>
       </c>
       <c r="L3">
-        <v>3.353939830615861</v>
+        <v>0.7453199623590802</v>
       </c>
       <c r="M3">
-        <v>20.42818399476594</v>
+        <v>4.539596443281319</v>
       </c>
       <c r="N3">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O3">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P3">
-        <v>82.42667652546184</v>
+        <v>18.31703922788041</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.164880299498312</v>
+        <v>0.2588622887774028</v>
       </c>
       <c r="C4">
-        <v>19.92256338363234</v>
+        <v>4.427236307473852</v>
       </c>
       <c r="D4">
-        <v>0.004421564824578333</v>
+        <v>0.0009825699610174071</v>
       </c>
       <c r="E4">
-        <v>1.599285879706484</v>
+        <v>0.3553968621569965</v>
       </c>
       <c r="F4">
-        <v>1.401638834695196</v>
+        <v>0.3114752965989324</v>
       </c>
       <c r="G4">
-        <v>6.733454490762441</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H4">
-        <v>0.2557287330823411</v>
+        <v>0.05682860735163134</v>
       </c>
       <c r="I4">
-        <v>7.207433714452388</v>
+        <v>1.601651936544975</v>
       </c>
       <c r="J4">
-        <v>1.56835628613185</v>
+        <v>0.3485236191404111</v>
       </c>
       <c r="K4">
-        <v>7.898819675839478</v>
+        <v>1.755293261297662</v>
       </c>
       <c r="L4">
-        <v>2.258775804292313</v>
+        <v>0.5019501787316252</v>
       </c>
       <c r="M4">
-        <v>13.75775656790359</v>
+        <v>3.05727923731191</v>
       </c>
       <c r="N4">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O4">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P4">
-        <v>64.20678327793006</v>
+        <v>14.26817406176224</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.350971135725221</v>
+        <v>0.3002158079389378</v>
       </c>
       <c r="C5">
-        <v>23.10521355072713</v>
+        <v>5.134491900161584</v>
       </c>
       <c r="D5">
-        <v>0.009790607825852018</v>
+        <v>0.002175690627967116</v>
       </c>
       <c r="E5">
-        <v>3.541275876492929</v>
+        <v>0.7869501947762065</v>
       </c>
       <c r="F5">
-        <v>2.803277669390393</v>
+        <v>0.6229505931978648</v>
       </c>
       <c r="G5">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H5">
-        <v>0.2422693260780073</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I5">
-        <v>6.828095097902262</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J5">
-        <v>2.269989361506625</v>
+        <v>0.5044420803348055</v>
       </c>
       <c r="K5">
-        <v>11.43250216239924</v>
+        <v>2.54055603608872</v>
       </c>
       <c r="L5">
-        <v>2.5325668108732</v>
+        <v>0.5627926246384887</v>
       </c>
       <c r="M5">
-        <v>15.42536342461918</v>
+        <v>3.427858538804263</v>
       </c>
       <c r="N5">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O5">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P5">
-        <v>84.09239411283679</v>
+        <v>18.68719869174151</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.418640530716825</v>
+        <v>0.3152534512704054</v>
       </c>
       <c r="C6">
-        <v>24.26254088421614</v>
+        <v>5.391675752048032</v>
       </c>
       <c r="D6">
-        <v>0.006000695119070593</v>
+        <v>0.00133348780423791</v>
       </c>
       <c r="E6">
-        <v>2.170459408173086</v>
+        <v>0.4823243129273524</v>
       </c>
       <c r="F6">
-        <v>2.647540021090926</v>
+        <v>0.5883422269090947</v>
       </c>
       <c r="G6">
-        <v>12.71874737144017</v>
+        <v>2.826388304764481</v>
       </c>
       <c r="H6">
-        <v>0.2557287330823411</v>
+        <v>0.05682860735163134</v>
       </c>
       <c r="I6">
-        <v>7.207433714452388</v>
+        <v>1.601651936544975</v>
       </c>
       <c r="J6">
-        <v>2.373170696120563</v>
+        <v>0.5273712658045694</v>
       </c>
       <c r="K6">
-        <v>11.95216135159921</v>
+        <v>2.656035855910935</v>
       </c>
       <c r="L6">
-        <v>2.327223555937536</v>
+        <v>0.5171607902083414</v>
       </c>
       <c r="M6">
-        <v>14.17465828208249</v>
+        <v>3.149924062684998</v>
       </c>
       <c r="N6">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O6">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P6">
-        <v>82.16480730869387</v>
+        <v>18.25884606859864</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.39930641786208</v>
+        <v>0.3109569817471289</v>
       </c>
       <c r="C7">
-        <v>23.93187593179072</v>
+        <v>5.318194651509049</v>
       </c>
       <c r="D7">
-        <v>0.01231721629703964</v>
+        <v>0.00273715917711992</v>
       </c>
       <c r="E7">
-        <v>4.455153522039491</v>
+        <v>0.990034116008776</v>
       </c>
       <c r="F7">
-        <v>2.024589427893061</v>
+        <v>0.4499087617540136</v>
       </c>
       <c r="G7">
-        <v>9.726100931101303</v>
+        <v>2.161355762466957</v>
       </c>
       <c r="H7">
-        <v>0.3230257681040097</v>
+        <v>0.07178350402311326</v>
       </c>
       <c r="I7">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="J7">
-        <v>2.269989361506625</v>
+        <v>0.5044420803348055</v>
       </c>
       <c r="K7">
-        <v>11.43250216239924</v>
+        <v>2.54055603608872</v>
       </c>
       <c r="L7">
-        <v>2.258775804292313</v>
+        <v>0.5019501787316252</v>
       </c>
       <c r="M7">
-        <v>13.75775656790359</v>
+        <v>3.05727923731191</v>
       </c>
       <c r="N7">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O7">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P7">
-        <v>81.34602197305563</v>
+        <v>18.07689377179014</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.636149300332691</v>
+        <v>0.3635887334072647</v>
       </c>
       <c r="C8">
-        <v>27.98252159900228</v>
+        <v>6.21833813311162</v>
       </c>
       <c r="D8">
-        <v>0.0138963465915319</v>
+        <v>0.003088077020340422</v>
       </c>
       <c r="E8">
-        <v>5.026327050506093</v>
+        <v>1.116961566779132</v>
       </c>
       <c r="F8">
-        <v>2.803277669390393</v>
+        <v>0.6229505931978648</v>
       </c>
       <c r="G8">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H8">
-        <v>0.3364851751083435</v>
+        <v>0.07477448335740967</v>
       </c>
       <c r="I8">
-        <v>9.483465413753141</v>
+        <v>2.10743675861181</v>
       </c>
       <c r="J8">
-        <v>1.692173887668575</v>
+        <v>0.3760386417041278</v>
       </c>
       <c r="K8">
-        <v>8.522410702879437</v>
+        <v>1.893869045084319</v>
       </c>
       <c r="L8">
-        <v>1.71119379113054</v>
+        <v>0.3802652869178978</v>
       </c>
       <c r="M8">
-        <v>10.42254285447242</v>
+        <v>2.316120634327204</v>
       </c>
       <c r="N8">
-        <v>0.09032542816871564</v>
+        <v>0.02007231737082569</v>
       </c>
       <c r="O8">
-        <v>1.427512722711895</v>
+        <v>0.3172250494915323</v>
       </c>
       <c r="P8">
-        <v>84.61519092324093</v>
+        <v>18.80337576072021</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,43 +830,43 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.894743059764889</v>
+        <v>0.4210540132810864</v>
       </c>
       <c r="C9">
-        <v>32.40516533769243</v>
+        <v>7.201147852820538</v>
       </c>
       <c r="D9">
-        <v>0.003789912706781427</v>
+        <v>0.0008422028237292062</v>
       </c>
       <c r="E9">
-        <v>1.370816468319844</v>
+        <v>0.3046258818488541</v>
       </c>
       <c r="F9">
-        <v>1.713114131294128</v>
+        <v>0.3806920291764729</v>
       </c>
       <c r="G9">
-        <v>8.229777710931875</v>
+        <v>1.828839491318194</v>
       </c>
       <c r="H9">
-        <v>0.2961069540953423</v>
+        <v>0.0658015453545205</v>
       </c>
       <c r="I9">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="J9">
-        <v>1.258812282290037</v>
+        <v>0.2797360627311195</v>
       </c>
       <c r="K9">
-        <v>6.33984210823958</v>
+        <v>1.408853801831018</v>
       </c>
       <c r="L9">
-        <v>1.437402784549655</v>
+        <v>0.3194228410110341</v>
       </c>
       <c r="M9">
-        <v>8.754935997756828</v>
+        <v>1.945541332834851</v>
       </c>
       <c r="P9">
-        <v>72.04995631174417</v>
+        <v>16.01110140260981</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.810156316025384</v>
+        <v>0.4022569591167524</v>
       </c>
       <c r="C10">
-        <v>30.95850617083117</v>
+        <v>6.879668037962479</v>
       </c>
       <c r="D10">
-        <v>0.002210782412289166</v>
+        <v>0.0004912849805087036</v>
       </c>
       <c r="E10">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="F10">
-        <v>1.635245307144395</v>
+        <v>0.3633878460320877</v>
       </c>
       <c r="G10">
-        <v>7.855696905889514</v>
+        <v>1.745710423531003</v>
       </c>
       <c r="H10">
-        <v>0.4845386521560146</v>
+        <v>0.1076752560346699</v>
       </c>
       <c r="I10">
-        <v>13.65619019580452</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="J10">
-        <v>1.011177079216588</v>
+        <v>0.2247060176036861</v>
       </c>
       <c r="K10">
-        <v>5.092660054159663</v>
+        <v>1.131702234257703</v>
       </c>
       <c r="L10">
-        <v>0.752925268097438</v>
+        <v>0.1673167262438751</v>
       </c>
       <c r="M10">
-        <v>4.585918855967866</v>
+        <v>1.01909307910397</v>
       </c>
       <c r="N10">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O10">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P10">
-        <v>68.86170254911245</v>
+        <v>15.30260056646943</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.307469381802047</v>
+        <v>0.290548751511566</v>
       </c>
       <c r="C11">
-        <v>22.36121740776992</v>
+        <v>4.96915942394887</v>
       </c>
       <c r="D11">
-        <v>0.001894956353390714</v>
+        <v>0.0004211014118646031</v>
       </c>
       <c r="E11">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="F11">
-        <v>1.323770010545463</v>
+        <v>0.2941711134545473</v>
       </c>
       <c r="G11">
-        <v>6.359373685720086</v>
+        <v>1.41319415238224</v>
       </c>
       <c r="H11">
-        <v>0.4037822101300122</v>
+        <v>0.08972938002889158</v>
       </c>
       <c r="I11">
-        <v>11.38015849650377</v>
+        <v>2.528924110334171</v>
       </c>
       <c r="J11">
-        <v>0.453997872301325</v>
+        <v>0.1008884160669611</v>
       </c>
       <c r="K11">
-        <v>2.286500432479849</v>
+        <v>0.5081112072177443</v>
       </c>
       <c r="L11">
-        <v>1.163611777968768</v>
+        <v>0.2585803951041707</v>
       </c>
       <c r="M11">
-        <v>7.087329141041244</v>
+        <v>1.574962031342499</v>
       </c>
       <c r="N11">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O11">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P11">
-        <v>55.03134762833018</v>
+        <v>12.22918836185115</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.174547355925684</v>
+        <v>0.2610105235390408</v>
       </c>
       <c r="C12">
-        <v>20.08789585984506</v>
+        <v>4.463976857743345</v>
       </c>
       <c r="D12">
-        <v>0.00568486906017214</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E12">
-        <v>2.056224702479765</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F12">
-        <v>1.168032362245996</v>
+        <v>0.2595627471657771</v>
       </c>
       <c r="G12">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="H12">
-        <v>0.3499445821126772</v>
+        <v>0.07776546269170606</v>
       </c>
       <c r="I12">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="J12">
-        <v>0.4333616053785375</v>
+        <v>0.09630257897300834</v>
       </c>
       <c r="K12">
-        <v>2.182568594639855</v>
+        <v>0.4850152432533013</v>
       </c>
       <c r="L12">
-        <v>0.616029764806995</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M12">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="N12">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O12">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P12">
-        <v>47.51725525159782</v>
+        <v>10.55939005591062</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.8555344938224116</v>
+        <v>0.1901187764049805</v>
       </c>
       <c r="C13">
-        <v>14.63192414482541</v>
+        <v>3.25153869885009</v>
       </c>
       <c r="D13">
-        <v>0.001263304235593809</v>
+        <v>0.000280734274576402</v>
       </c>
       <c r="E13">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="F13">
-        <v>1.012294713946531</v>
+        <v>0.2249543808770068</v>
       </c>
       <c r="G13">
-        <v>4.863050465550652</v>
+        <v>1.080677881233478</v>
       </c>
       <c r="H13">
-        <v>0.3499445821126772</v>
+        <v>0.07776546269170606</v>
       </c>
       <c r="I13">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="J13">
-        <v>0.3301802707645999</v>
+        <v>0.07337339350324444</v>
       </c>
       <c r="K13">
-        <v>1.66290940543989</v>
+        <v>0.3695354234310867</v>
       </c>
       <c r="L13">
-        <v>0.5475820131617729</v>
+        <v>0.1216848918137273</v>
       </c>
       <c r="M13">
-        <v>3.335213713431174</v>
+        <v>0.7411586029847055</v>
       </c>
       <c r="N13">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O13">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P13">
-        <v>38.12647398192163</v>
+        <v>8.472549773760361</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.4398510674454206</v>
+        <v>0.09774468165453798</v>
       </c>
       <c r="C14">
-        <v>7.522627667678602</v>
+        <v>1.671695037261912</v>
       </c>
       <c r="D14">
-        <v>0.0006316521177969044</v>
+        <v>0.000140367137288201</v>
       </c>
       <c r="E14">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="F14">
-        <v>0.3893441207486655</v>
+        <v>0.0865209157219257</v>
       </c>
       <c r="G14">
-        <v>1.870404025211789</v>
+        <v>0.4156453389359533</v>
       </c>
       <c r="H14">
-        <v>0.2288099190736735</v>
+        <v>0.05084664868303858</v>
       </c>
       <c r="I14">
-        <v>6.448756481352135</v>
+        <v>1.433056995856031</v>
       </c>
       <c r="J14">
-        <v>0.24763520307345</v>
+        <v>0.05503004512743333</v>
       </c>
       <c r="K14">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="L14">
-        <v>0.2053432549356649</v>
+        <v>0.04563183443014776</v>
       </c>
       <c r="M14">
-        <v>1.25070514253669</v>
+        <v>0.2779344761192645</v>
       </c>
       <c r="P14">
-        <v>20.07975999964045</v>
+        <v>4.462168888808988</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,43 +1118,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.3576810878127596</v>
+        <v>0.07948468618061329</v>
       </c>
       <c r="C15">
-        <v>6.117301619870513</v>
+        <v>1.359400359971225</v>
       </c>
       <c r="D15">
-        <v>0.002210782412289166</v>
+        <v>0.0004912849805087036</v>
       </c>
       <c r="E15">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="F15">
-        <v>0.6229505931978648</v>
+        <v>0.1384334651550811</v>
       </c>
       <c r="G15">
-        <v>2.992646440338863</v>
+        <v>0.6650325422975251</v>
       </c>
       <c r="H15">
-        <v>0.08075644202600243</v>
+        <v>0.01794587600577831</v>
       </c>
       <c r="I15">
-        <v>2.276031699300755</v>
+        <v>0.5057848220668343</v>
       </c>
       <c r="J15">
-        <v>0.6190880076836249</v>
+        <v>0.1375751128185833</v>
       </c>
       <c r="K15">
-        <v>3.117955135199794</v>
+        <v>0.6928789189332873</v>
       </c>
       <c r="L15">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M15">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="P15">
-        <v>19.4130120768163</v>
+        <v>4.314002683736956</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1162,31 +1162,31 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.2924284569279995</v>
+        <v>0.0649841015395554</v>
       </c>
       <c r="C16">
-        <v>5.001307405434676</v>
+        <v>1.11140164565215</v>
       </c>
       <c r="D16">
-        <v>0.001894956353390714</v>
+        <v>0.0004211014118646031</v>
       </c>
       <c r="E16">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="J16">
-        <v>0.2682714699962375</v>
+        <v>0.05961588222138611</v>
       </c>
       <c r="K16">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="L16">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M16">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="P16">
-        <v>10.02717174391273</v>
+        <v>2.228260387536162</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1194,37 +1194,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1595064310516361</v>
+        <v>0.03544587356703024</v>
       </c>
       <c r="C17">
-        <v>2.727985857509822</v>
+        <v>0.6062190794466272</v>
       </c>
       <c r="D17">
-        <v>0.0003158260588984522</v>
+        <v>7.01835686441005E-05</v>
       </c>
       <c r="E17">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="F17">
-        <v>0.2336064724491993</v>
+        <v>0.05191254943315542</v>
       </c>
       <c r="G17">
-        <v>1.122242415127074</v>
+        <v>0.2493872033615719</v>
       </c>
       <c r="J17">
-        <v>0.1857264023050875</v>
+        <v>0.041272533845575</v>
       </c>
       <c r="K17">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="L17">
-        <v>0.1368955032904432</v>
+        <v>0.03042122295343182</v>
       </c>
       <c r="M17">
-        <v>0.8338034283577934</v>
+        <v>0.1852896507461764</v>
       </c>
       <c r="P17">
-        <v>6.449703582403212</v>
+        <v>1.43326746275627</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1232,37 +1232,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1256717335558344</v>
+        <v>0.02792705190129656</v>
       </c>
       <c r="C18">
-        <v>2.149322190765315</v>
+        <v>0.4776271535034033</v>
       </c>
       <c r="D18">
-        <v>0.0003158260588984522</v>
+        <v>7.01835686441005E-05</v>
       </c>
       <c r="E18">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="F18">
-        <v>0.0778688241497331</v>
+        <v>0.01730418314438514</v>
       </c>
       <c r="G18">
-        <v>0.3740808050423579</v>
+        <v>0.08312906778719063</v>
       </c>
       <c r="J18">
-        <v>0.1031813346139375</v>
+        <v>0.02292918546976389</v>
       </c>
       <c r="K18">
-        <v>0.5196591891999656</v>
+        <v>0.1154798198222146</v>
       </c>
       <c r="L18">
-        <v>0.2737910065808865</v>
+        <v>0.06084244590686365</v>
       </c>
       <c r="M18">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="P18">
-        <v>5.405732472375836</v>
+        <v>1.201273882750186</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,43 +1270,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1208382053421485</v>
+        <v>0.02685293452047746</v>
       </c>
       <c r="C19">
-        <v>2.066655952658956</v>
+        <v>0.4592568783686573</v>
       </c>
       <c r="D19">
-        <v>0.001579130294492261</v>
+        <v>0.0003509178432205025</v>
       </c>
       <c r="E19">
-        <v>0.5711735284666014</v>
+        <v>0.1269274507703559</v>
       </c>
       <c r="F19">
-        <v>0.1557376482994662</v>
+        <v>0.03460836628877027</v>
       </c>
       <c r="G19">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="H19">
-        <v>0.05383762801733496</v>
+        <v>0.01196391733718555</v>
       </c>
       <c r="I19">
-        <v>1.517354466200503</v>
+        <v>0.3371898813778896</v>
       </c>
       <c r="J19">
-        <v>0.24763520307345</v>
+        <v>0.05503004512743333</v>
       </c>
       <c r="K19">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="L19">
-        <v>0.2737910065808865</v>
+        <v>0.06084244590686365</v>
       </c>
       <c r="M19">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="P19">
-        <v>8.67155328981406</v>
+        <v>1.927011842180903</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1314,31 +1314,31 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.2223422978295534</v>
+        <v>0.04940939951767848</v>
       </c>
       <c r="C20">
-        <v>3.80264695289248</v>
+        <v>0.8450326561983288</v>
       </c>
       <c r="D20">
-        <v>0.0006316521177969044</v>
+        <v>0.000140367137288201</v>
       </c>
       <c r="E20">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="J20">
-        <v>0.2269989361506625</v>
+        <v>0.05044420803348055</v>
       </c>
       <c r="K20">
-        <v>1.143250216239925</v>
+        <v>0.2540556036088721</v>
       </c>
       <c r="L20">
-        <v>0.616029764806995</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M20">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P20">
-        <v>9.992484659034126</v>
+        <v>2.220552146452027</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,49 +1346,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.7491968731213211</v>
+        <v>0.1664881940269602</v>
       </c>
       <c r="C21">
-        <v>12.81326690648553</v>
+        <v>2.847392645885673</v>
       </c>
       <c r="D21">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E21">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F21">
-        <v>1.713114131294128</v>
+        <v>0.3806920291764729</v>
       </c>
       <c r="G21">
-        <v>8.229777710931875</v>
+        <v>1.828839491318194</v>
       </c>
       <c r="H21">
-        <v>0.08075644202600243</v>
+        <v>0.01794587600577831</v>
       </c>
       <c r="I21">
-        <v>2.276031699300755</v>
+        <v>0.5057848220668343</v>
       </c>
       <c r="J21">
-        <v>0.7635418761431374</v>
+        <v>0.1696759724762528</v>
       </c>
       <c r="K21">
-        <v>3.845478000079746</v>
+        <v>0.8545506666843882</v>
       </c>
       <c r="L21">
-        <v>0.616029764806995</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M21">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="N21">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O21">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P21">
-        <v>35.61662847016497</v>
+        <v>7.914806326703325</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1396,49 +1396,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.283301740733618</v>
+        <v>0.2851781646074706</v>
       </c>
       <c r="C22">
-        <v>21.94788621723812</v>
+        <v>4.877308048275138</v>
       </c>
       <c r="D22">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E22">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F22">
-        <v>2.25819590034226</v>
+        <v>0.5018213111871691</v>
       </c>
       <c r="G22">
-        <v>10.84834334622838</v>
+        <v>2.410742965828528</v>
       </c>
       <c r="H22">
-        <v>0.4710792451516809</v>
+        <v>0.1046842767003735</v>
       </c>
       <c r="I22">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="J22">
-        <v>1.361993616903975</v>
+        <v>0.3026652482008834</v>
       </c>
       <c r="K22">
-        <v>6.859501297439547</v>
+        <v>1.524333621653233</v>
       </c>
       <c r="L22">
-        <v>2.121880301001871</v>
+        <v>0.4715289557781932</v>
       </c>
       <c r="M22">
-        <v>12.9239531395458</v>
+        <v>2.871989586565733</v>
       </c>
       <c r="N22">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O22">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P22">
-        <v>73.91347200065069</v>
+        <v>16.42521600014459</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1446,49 +1446,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.657900177294278</v>
+        <v>0.3684222616209506</v>
       </c>
       <c r="C23">
-        <v>28.35451967048089</v>
+        <v>6.301004371217977</v>
       </c>
       <c r="D23">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E23">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F23">
-        <v>1.090163538096263</v>
+        <v>0.242258564021392</v>
       </c>
       <c r="G23">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="H23">
-        <v>0.4307010241386797</v>
+        <v>0.09571133869748438</v>
       </c>
       <c r="I23">
-        <v>12.13883572960402</v>
+        <v>2.697519051023117</v>
       </c>
       <c r="J23">
-        <v>0.8048144099887126</v>
+        <v>0.1788476466641584</v>
       </c>
       <c r="K23">
-        <v>4.053341675759731</v>
+        <v>0.900742594613274</v>
       </c>
       <c r="L23">
-        <v>1.095164026323546</v>
+        <v>0.2433697836274546</v>
       </c>
       <c r="M23">
-        <v>6.670427426862347</v>
+        <v>1.482317205969411</v>
       </c>
       <c r="N23">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O23">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P23">
-        <v>62.31031858750688</v>
+        <v>13.84673746389042</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1496,49 +1496,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.607148131050576</v>
+        <v>0.3571440291223502</v>
       </c>
       <c r="C24">
-        <v>27.48652417036413</v>
+        <v>6.108116482303138</v>
       </c>
       <c r="D24">
-        <v>0.005053216942375235</v>
+        <v>0.001122937098305608</v>
       </c>
       <c r="E24">
-        <v>1.827755291093125</v>
+        <v>0.4061678424651389</v>
       </c>
       <c r="F24">
-        <v>1.868851779593595</v>
+        <v>0.4153003954652433</v>
       </c>
       <c r="G24">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="H24">
-        <v>0.3768633961213446</v>
+        <v>0.08374742136029883</v>
       </c>
       <c r="I24">
-        <v>10.62148126340352</v>
+        <v>2.360329169645226</v>
       </c>
       <c r="J24">
-        <v>1.114358413830525</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K24">
-        <v>5.612319243359629</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L24">
-        <v>1.984984797711428</v>
+        <v>0.4411077328247617</v>
       </c>
       <c r="M24">
-        <v>12.090149711188</v>
+        <v>2.686699935819557</v>
       </c>
       <c r="N24">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O24">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P24">
-        <v>74.22393080033798</v>
+        <v>16.49420684451955</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1546,49 +1546,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.389639361434708</v>
+        <v>0.3088087469854908</v>
       </c>
       <c r="C25">
-        <v>23.766543455578</v>
+        <v>5.281454101239555</v>
       </c>
       <c r="D25">
-        <v>0.006948173295765951</v>
+        <v>0.001544038510170211</v>
       </c>
       <c r="E25">
-        <v>2.513163525253046</v>
+        <v>0.558480783389566</v>
       </c>
       <c r="F25">
-        <v>1.479507658844929</v>
+        <v>0.3287794797433174</v>
       </c>
       <c r="G25">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="H25">
-        <v>0.6191327221993519</v>
+        <v>0.1375850493776339</v>
       </c>
       <c r="I25">
-        <v>17.44957636130578</v>
+        <v>3.87768363584573</v>
       </c>
       <c r="J25">
-        <v>2.001717891510387</v>
+        <v>0.4448261981134195</v>
       </c>
       <c r="K25">
-        <v>10.08138827047933</v>
+        <v>2.240308504550963</v>
       </c>
       <c r="L25">
-        <v>1.984984797711428</v>
+        <v>0.4411077328247617</v>
       </c>
       <c r="M25">
-        <v>12.090149711188</v>
+        <v>2.686699935819557</v>
       </c>
       <c r="N25">
-        <v>0.1161326933597773</v>
+        <v>0.02580726519106162</v>
       </c>
       <c r="O25">
-        <v>1.835373500629579</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P25">
-        <v>82.4417934185949</v>
+        <v>18.32039853746553</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1596,49 +1596,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.17213059181884</v>
+        <v>0.2604734648486315</v>
       </c>
       <c r="C26">
-        <v>20.04656274079188</v>
+        <v>4.454791720175972</v>
       </c>
       <c r="D26">
-        <v>0.005369043001273689</v>
+        <v>0.001193120666949709</v>
       </c>
       <c r="E26">
-        <v>1.941989996786445</v>
+        <v>0.4315533326192101</v>
       </c>
       <c r="F26">
-        <v>1.868851779593595</v>
+        <v>0.4153003954652433</v>
       </c>
       <c r="G26">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="H26">
-        <v>0.3095663610996759</v>
+        <v>0.06879252468881693</v>
       </c>
       <c r="I26">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="J26">
-        <v>2.249353094583837</v>
+        <v>0.4998562432408528</v>
       </c>
       <c r="K26">
-        <v>11.32857032455925</v>
+        <v>2.517460072124278</v>
       </c>
       <c r="L26">
-        <v>4.722894863520294</v>
+        <v>1.049532191893398</v>
       </c>
       <c r="M26">
-        <v>28.76621827834387</v>
+        <v>6.392492950743085</v>
       </c>
       <c r="N26">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O26">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P26">
-        <v>90.76473664043156</v>
+        <v>20.16994147565146</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1646,49 +1646,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.10687796093408</v>
+        <v>0.2459728802075735</v>
       </c>
       <c r="C27">
-        <v>18.93056852635604</v>
+        <v>4.206793005856898</v>
       </c>
       <c r="D27">
-        <v>0.00821147753135976</v>
+        <v>0.001824772784746614</v>
       </c>
       <c r="E27">
-        <v>2.970102348026328</v>
+        <v>0.6600227440058506</v>
       </c>
       <c r="F27">
-        <v>1.868851779593595</v>
+        <v>0.4153003954652433</v>
       </c>
       <c r="G27">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="H27">
-        <v>0.2691881400866747</v>
+        <v>0.05981958668592775</v>
       </c>
       <c r="I27">
-        <v>7.586772331002512</v>
+        <v>1.685949406889448</v>
       </c>
       <c r="J27">
-        <v>2.455715763811713</v>
+        <v>0.5457146141803805</v>
       </c>
       <c r="K27">
-        <v>12.36788870295918</v>
+        <v>2.748419711768707</v>
       </c>
       <c r="L27">
-        <v>4.312208353648961</v>
+        <v>0.9582685230331026</v>
       </c>
       <c r="M27">
-        <v>26.26480799327049</v>
+        <v>5.836623998504554</v>
       </c>
       <c r="N27">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O27">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P27">
-        <v>87.55280074134629</v>
+        <v>19.45617794252139</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1696,49 +1696,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.094794140399865</v>
+        <v>0.2432875867555258</v>
       </c>
       <c r="C28">
-        <v>18.72390293109015</v>
+        <v>4.160867318020034</v>
       </c>
       <c r="D28">
-        <v>0.003474086647882975</v>
+        <v>0.0007720192550851056</v>
       </c>
       <c r="E28">
-        <v>1.256581762626523</v>
+        <v>0.279240391694783</v>
       </c>
       <c r="F28">
-        <v>1.090163538096263</v>
+        <v>0.242258564021392</v>
       </c>
       <c r="G28">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="H28">
-        <v>0.3230257681040097</v>
+        <v>0.07178350402311326</v>
       </c>
       <c r="I28">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="J28">
-        <v>1.3207210830584</v>
+        <v>0.2934935740129778</v>
       </c>
       <c r="K28">
-        <v>6.651637621759559</v>
+        <v>1.478141693724347</v>
       </c>
       <c r="L28">
-        <v>2.327223555937536</v>
+        <v>0.5171607902083414</v>
       </c>
       <c r="M28">
-        <v>14.17465828208249</v>
+        <v>3.149924062684998</v>
       </c>
       <c r="N28">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O28">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P28">
-        <v>61.95794290226183</v>
+        <v>13.76843175605818</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1746,49 +1746,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.353387899832064</v>
+        <v>0.3007528666293476</v>
       </c>
       <c r="C29">
-        <v>23.14654666978031</v>
+        <v>5.143677037728955</v>
       </c>
       <c r="D29">
-        <v>0.009790607825852018</v>
+        <v>0.002175690627967116</v>
       </c>
       <c r="E29">
-        <v>3.541275876492929</v>
+        <v>0.7869501947762065</v>
       </c>
       <c r="F29">
-        <v>3.504097086737989</v>
+        <v>0.7786882414973311</v>
       </c>
       <c r="G29">
-        <v>16.8336362269061</v>
+        <v>3.740808050423579</v>
       </c>
       <c r="H29">
-        <v>0.4037822101300122</v>
+        <v>0.08972938002889158</v>
       </c>
       <c r="I29">
-        <v>11.38015849650377</v>
+        <v>2.528924110334171</v>
       </c>
       <c r="J29">
-        <v>2.166808026892687</v>
+        <v>0.4815128948650416</v>
       </c>
       <c r="K29">
-        <v>10.91284297319928</v>
+        <v>2.425076216266507</v>
       </c>
       <c r="L29">
-        <v>3.490835333906303</v>
+        <v>0.7757411853125117</v>
       </c>
       <c r="M29">
-        <v>21.26198742312373</v>
+        <v>4.724886094027497</v>
       </c>
       <c r="N29">
-        <v>0.1032290607642464</v>
+        <v>0.02293979128094366</v>
       </c>
       <c r="O29">
-        <v>1.631443111670737</v>
+        <v>0.3625429137046082</v>
       </c>
       <c r="P29">
-        <v>99.739821003766</v>
+        <v>22.16440466750356</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1796,49 +1796,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.205965289314642</v>
+        <v>0.267992286514365</v>
       </c>
       <c r="C30">
-        <v>20.62522640753638</v>
+        <v>4.583383646119198</v>
       </c>
       <c r="D30">
-        <v>0.004737390883476786</v>
+        <v>0.001052753529661508</v>
       </c>
       <c r="E30">
-        <v>1.713520585399804</v>
+        <v>0.3807823523110677</v>
       </c>
       <c r="F30">
-        <v>2.803277669390393</v>
+        <v>0.6229505931978648</v>
       </c>
       <c r="G30">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H30">
-        <v>0.2153505120693398</v>
+        <v>0.04785566934874219</v>
       </c>
       <c r="I30">
-        <v>6.069417864802011</v>
+        <v>1.348759525511558</v>
       </c>
       <c r="J30">
-        <v>2.414443229966138</v>
+        <v>0.536542939992475</v>
       </c>
       <c r="K30">
-        <v>12.16002502727919</v>
+        <v>2.702227783839822</v>
       </c>
       <c r="L30">
-        <v>1.71119379113054</v>
+        <v>0.3802652869178978</v>
       </c>
       <c r="M30">
-        <v>10.42254285447242</v>
+        <v>2.316120634327204</v>
       </c>
       <c r="N30">
-        <v>0.05161453038212322</v>
+        <v>0.01146989564047183</v>
       </c>
       <c r="O30">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="P30">
-        <v>73.67994568998671</v>
+        <v>16.3733212644415</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1846,49 +1846,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.440391407678411</v>
+        <v>0.3200869794840912</v>
       </c>
       <c r="C31">
-        <v>24.63453895569476</v>
+        <v>5.474341990154393</v>
       </c>
       <c r="D31">
-        <v>0.00821147753135976</v>
+        <v>0.001824772784746614</v>
       </c>
       <c r="E31">
-        <v>2.970102348026328</v>
+        <v>0.6600227440058506</v>
       </c>
       <c r="F31">
-        <v>2.72540884524066</v>
+        <v>0.6056464100534795</v>
       </c>
       <c r="G31">
-        <v>13.09282817648253</v>
+        <v>2.909517372551673</v>
       </c>
       <c r="H31">
-        <v>0.2691881400866747</v>
+        <v>0.05981958668592775</v>
       </c>
       <c r="I31">
-        <v>7.586772331002512</v>
+        <v>1.685949406889448</v>
       </c>
       <c r="J31">
-        <v>2.063626692278749</v>
+        <v>0.4585837093952777</v>
       </c>
       <c r="K31">
-        <v>10.39318378399931</v>
+        <v>2.309596396444292</v>
       </c>
       <c r="L31">
-        <v>2.395671307582756</v>
+        <v>0.532371401685057</v>
       </c>
       <c r="M31">
-        <v>14.59155999626138</v>
+        <v>3.242568888058086</v>
       </c>
       <c r="N31">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O31">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P31">
-        <v>83.2556535696373</v>
+        <v>18.50125634880829</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1896,49 +1896,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.672400761935336</v>
+        <v>0.3716446137634078</v>
       </c>
       <c r="C32">
-        <v>28.60251838479996</v>
+        <v>6.356115196622215</v>
       </c>
       <c r="D32">
-        <v>0.01168556417924273</v>
+        <v>0.002596792039831719</v>
       </c>
       <c r="E32">
-        <v>4.226684110652851</v>
+        <v>0.9392631357006338</v>
       </c>
       <c r="F32">
-        <v>2.569671196941194</v>
+        <v>0.5710380437647095</v>
       </c>
       <c r="G32">
-        <v>12.34466656639781</v>
+        <v>2.743259236977292</v>
       </c>
       <c r="H32">
-        <v>0.3230257681040097</v>
+        <v>0.07178350402311326</v>
       </c>
       <c r="I32">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="J32">
-        <v>1.692173887668575</v>
+        <v>0.3760386417041278</v>
       </c>
       <c r="K32">
-        <v>8.522410702879437</v>
+        <v>1.893869045084319</v>
       </c>
       <c r="L32">
-        <v>3.080148824034973</v>
+        <v>0.6844775164522164</v>
       </c>
       <c r="M32">
-        <v>18.76057713805035</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="N32">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O32">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P32">
-        <v>91.99425981061862</v>
+        <v>20.44316884680414</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1946,43 +1946,43 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.923744229047004</v>
+        <v>0.4274987175660011</v>
       </c>
       <c r="C33">
-        <v>32.90116276633059</v>
+        <v>7.311369503629018</v>
       </c>
       <c r="D33">
-        <v>0.00284243453008607</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E33">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F33">
-        <v>1.24590118639573</v>
+        <v>0.2768669303101622</v>
       </c>
       <c r="G33">
-        <v>5.985292880677726</v>
+        <v>1.33006508459505</v>
       </c>
       <c r="H33">
-        <v>0.2691881400866747</v>
+        <v>0.05981958668592775</v>
       </c>
       <c r="I33">
-        <v>7.586772331002512</v>
+        <v>1.685949406889448</v>
       </c>
       <c r="J33">
-        <v>1.093722146907737</v>
+        <v>0.2430493659794972</v>
       </c>
       <c r="K33">
-        <v>5.508387405519635</v>
+        <v>1.224086090115475</v>
       </c>
       <c r="L33">
-        <v>1.30050728125921</v>
+        <v>0.2890016180576023</v>
       </c>
       <c r="M33">
-        <v>7.921132569399039</v>
+        <v>1.760251682088676</v>
       </c>
       <c r="P33">
-        <v>66.76676572239582</v>
+        <v>14.83705904942129</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1990,49 +1990,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.996247152252294</v>
+        <v>0.4436104782782875</v>
       </c>
       <c r="C34">
-        <v>34.14115633792596</v>
+        <v>7.586923630650213</v>
       </c>
       <c r="D34">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E34">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F34">
-        <v>1.090163538096263</v>
+        <v>0.242258564021392</v>
       </c>
       <c r="G34">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="H34">
-        <v>0.4710792451516809</v>
+        <v>0.1046842767003735</v>
       </c>
       <c r="I34">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="J34">
-        <v>1.114358413830525</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K34">
-        <v>5.612319243359629</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L34">
-        <v>0.4791342615165513</v>
+        <v>0.1064742803370114</v>
       </c>
       <c r="M34">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="N34">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O34">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P34">
-        <v>67.114072679598</v>
+        <v>14.914238373244</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2040,49 +2040,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.396889653755237</v>
+        <v>0.3104199230567193</v>
       </c>
       <c r="C35">
-        <v>23.89054281273754</v>
+        <v>5.309009513941675</v>
       </c>
       <c r="D35">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E35">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F35">
-        <v>1.012294713946531</v>
+        <v>0.2249543808770068</v>
       </c>
       <c r="G35">
-        <v>4.863050465550652</v>
+        <v>1.080677881233478</v>
       </c>
       <c r="H35">
-        <v>0.363403989117011</v>
+        <v>0.08075644202600243</v>
       </c>
       <c r="I35">
-        <v>10.2421426468534</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="J35">
-        <v>0.5778154738380499</v>
+        <v>0.1284034386306778</v>
       </c>
       <c r="K35">
-        <v>2.910091459519808</v>
+        <v>0.6466869910044017</v>
       </c>
       <c r="L35">
-        <v>1.437402784549655</v>
+        <v>0.3194228410110341</v>
       </c>
       <c r="M35">
-        <v>8.754935997756828</v>
+        <v>1.945541332834851</v>
       </c>
       <c r="N35">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O35">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P35">
-        <v>56.22588963599011</v>
+        <v>12.49464214133114</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2090,49 +2090,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.329220258763633</v>
+        <v>0.2953822797252521</v>
       </c>
       <c r="C36">
-        <v>22.73321547924851</v>
+        <v>5.051825662055226</v>
       </c>
       <c r="D36">
-        <v>0.001894956353390714</v>
+        <v>0.0004211014118646031</v>
       </c>
       <c r="E36">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="F36">
-        <v>0.7008194173475982</v>
+        <v>0.1557376482994662</v>
       </c>
       <c r="G36">
-        <v>3.36672724538122</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="H36">
-        <v>0.4441604311430135</v>
+        <v>0.09870231803178076</v>
       </c>
       <c r="I36">
-        <v>12.51817434615415</v>
+        <v>2.781816521367589</v>
       </c>
       <c r="J36">
-        <v>0.4952704061468999</v>
+        <v>0.1100600902548667</v>
       </c>
       <c r="K36">
-        <v>2.494364108159835</v>
+        <v>0.5543031351466299</v>
       </c>
       <c r="L36">
-        <v>0.616029764806995</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M36">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="N36">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O36">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P36">
-        <v>49.57106811838399</v>
+        <v>11.01579291519644</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2140,49 +2140,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.9377044734550724</v>
+        <v>0.2083787718789051</v>
       </c>
       <c r="C37">
-        <v>16.03725019263351</v>
+        <v>3.563833376140778</v>
       </c>
       <c r="D37">
-        <v>0.0006316521177969044</v>
+        <v>0.000140367137288201</v>
       </c>
       <c r="E37">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="F37">
-        <v>0.8565570656470642</v>
+        <v>0.1903460145882365</v>
       </c>
       <c r="G37">
-        <v>4.114888855465938</v>
+        <v>0.9144197456590971</v>
       </c>
       <c r="H37">
-        <v>0.3230257681040097</v>
+        <v>0.07178350402311326</v>
       </c>
       <c r="I37">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="J37">
-        <v>0.6603605415291999</v>
+        <v>0.1467467870064889</v>
       </c>
       <c r="K37">
-        <v>3.32581881087978</v>
+        <v>0.7390708468621734</v>
       </c>
       <c r="L37">
-        <v>0.6844775164522163</v>
+        <v>0.1521061147671592</v>
       </c>
       <c r="M37">
-        <v>4.169017141788967</v>
+        <v>0.926448253730882</v>
       </c>
       <c r="N37">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O37">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P37">
-        <v>40.87599626977197</v>
+        <v>9.08355472661599</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.4833528213685942</v>
+        <v>0.1074117380819098</v>
       </c>
       <c r="C38">
-        <v>8.266623810635824</v>
+        <v>1.837027513474629</v>
       </c>
       <c r="D38">
-        <v>0.0006316521177969044</v>
+        <v>0.000140367137288201</v>
       </c>
       <c r="E38">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="F38">
-        <v>0.3893441207486655</v>
+        <v>0.0865209157219257</v>
       </c>
       <c r="G38">
-        <v>1.870404025211789</v>
+        <v>0.4156453389359533</v>
       </c>
       <c r="H38">
-        <v>0.2288099190736735</v>
+        <v>0.05084664868303858</v>
       </c>
       <c r="I38">
-        <v>6.448756481352135</v>
+        <v>1.433056995856031</v>
       </c>
       <c r="J38">
-        <v>0.2889077369190249</v>
+        <v>0.06420171931533888</v>
       </c>
       <c r="K38">
-        <v>1.455045729759904</v>
+        <v>0.3233434955022009</v>
       </c>
       <c r="L38">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M38">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="P38">
-        <v>22.08709303769464</v>
+        <v>4.908242897265477</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,43 +2234,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.4181001904838339</v>
+        <v>0.09291115344085196</v>
       </c>
       <c r="C39">
-        <v>7.15062959619999</v>
+        <v>1.589028799155554</v>
       </c>
       <c r="D39">
-        <v>0.003474086647882975</v>
+        <v>0.0007720192550851056</v>
       </c>
       <c r="E39">
-        <v>1.256581762626523</v>
+        <v>0.279240391694783</v>
       </c>
       <c r="F39">
-        <v>0.7008194173475982</v>
+        <v>0.1557376482994662</v>
       </c>
       <c r="G39">
-        <v>3.36672724538122</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="H39">
-        <v>0.05383762801733496</v>
+        <v>0.01196391733718555</v>
       </c>
       <c r="I39">
-        <v>1.517354466200503</v>
+        <v>0.3371898813778896</v>
       </c>
       <c r="J39">
-        <v>0.453997872301325</v>
+        <v>0.1008884160669611</v>
       </c>
       <c r="K39">
-        <v>2.286500432479849</v>
+        <v>0.5081112072177443</v>
       </c>
       <c r="L39">
-        <v>0.2737910065808865</v>
+        <v>0.06084244590686365</v>
       </c>
       <c r="M39">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="P39">
-        <v>19.14942056098253</v>
+        <v>4.255426791329453</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,31 +2278,31 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.3214296262101152</v>
+        <v>0.07142880582447002</v>
       </c>
       <c r="C40">
-        <v>5.497304834072823</v>
+        <v>1.221623296460628</v>
       </c>
       <c r="D40">
-        <v>0.003474086647882975</v>
+        <v>0.0007720192550851056</v>
       </c>
       <c r="E40">
-        <v>1.256581762626523</v>
+        <v>0.279240391694783</v>
       </c>
       <c r="J40">
-        <v>0.3508165376873875</v>
+        <v>0.07795923059719724</v>
       </c>
       <c r="K40">
-        <v>1.766841243279883</v>
+        <v>0.3926313873955297</v>
       </c>
       <c r="L40">
-        <v>0.4791342615165513</v>
+        <v>0.1064742803370114</v>
       </c>
       <c r="M40">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="P40">
-        <v>12.59389435129344</v>
+        <v>2.798643189176321</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2310,37 +2310,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1981746567611238</v>
+        <v>0.04403881261358302</v>
       </c>
       <c r="C41">
-        <v>3.389315762360688</v>
+        <v>0.7531812805245975</v>
       </c>
       <c r="D41">
-        <v>0.0003158260588984522</v>
+        <v>7.01835686441005E-05</v>
       </c>
       <c r="E41">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="F41">
-        <v>0.2336064724491993</v>
+        <v>0.05191254943315542</v>
       </c>
       <c r="G41">
-        <v>1.122242415127074</v>
+        <v>0.2493872033615719</v>
       </c>
       <c r="J41">
-        <v>0.1857264023050875</v>
+        <v>0.041272533845575</v>
       </c>
       <c r="K41">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="L41">
-        <v>0.2053432549356649</v>
+        <v>0.04563183443014776</v>
       </c>
       <c r="M41">
-        <v>1.25070514253669</v>
+        <v>0.2779344761192645</v>
       </c>
       <c r="P41">
-        <v>7.635051178787685</v>
+        <v>1.696678039730597</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2348,37 +2348,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.169173487479008</v>
+        <v>0.03759410832866845</v>
       </c>
       <c r="C42">
-        <v>2.893318333722538</v>
+        <v>0.6429596297161194</v>
       </c>
       <c r="D42">
-        <v>0.0003158260588984522</v>
+        <v>7.01835686441005E-05</v>
       </c>
       <c r="E42">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="F42">
-        <v>0.1557376482994662</v>
+        <v>0.03460836628877027</v>
       </c>
       <c r="G42">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="J42">
-        <v>0.1031813346139375</v>
+        <v>0.02292918546976389</v>
       </c>
       <c r="K42">
-        <v>0.5196591891999656</v>
+        <v>0.1154798198222146</v>
       </c>
       <c r="L42">
-        <v>0.2737910065808865</v>
+        <v>0.06084244590686365</v>
       </c>
       <c r="M42">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="P42">
-        <v>6.645179998448323</v>
+        <v>1.47670666632185</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2386,43 +2386,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1232549694489915</v>
+        <v>0.02738999321088699</v>
       </c>
       <c r="C43">
-        <v>2.107989071712135</v>
+        <v>0.4684420159360303</v>
       </c>
       <c r="D43">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E43">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F43">
-        <v>0.1557376482994662</v>
+        <v>0.03460836628877027</v>
       </c>
       <c r="G43">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="H43">
-        <v>0.02691881400866748</v>
+        <v>0.005981958668592774</v>
       </c>
       <c r="I43">
-        <v>0.7586772331002514</v>
+        <v>0.1685949406889448</v>
       </c>
       <c r="J43">
-        <v>0.1857264023050875</v>
+        <v>0.041272533845575</v>
       </c>
       <c r="K43">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="L43">
-        <v>0.4106865098713298</v>
+        <v>0.09126366886029552</v>
       </c>
       <c r="M43">
-        <v>2.50141028507338</v>
+        <v>0.5558689522385291</v>
       </c>
       <c r="P43">
-        <v>8.29760067972062</v>
+        <v>1.843911262160138</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2430,31 +2430,31 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2199255337227103</v>
+        <v>0.04887234082726899</v>
       </c>
       <c r="C44">
-        <v>3.761313833839301</v>
+        <v>0.835847518630956</v>
       </c>
       <c r="D44">
-        <v>0.0006316521177969044</v>
+        <v>0.000140367137288201</v>
       </c>
       <c r="E44">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="J44">
-        <v>0.24763520307345</v>
+        <v>0.05503004512743333</v>
       </c>
       <c r="K44">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="L44">
-        <v>0.752925268097438</v>
+        <v>0.1673167262438751</v>
       </c>
       <c r="M44">
-        <v>4.585918855967866</v>
+        <v>1.01909307910397</v>
       </c>
       <c r="P44">
-        <v>11.04400181228512</v>
+        <v>2.454222624952249</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.7540304013350069</v>
+        <v>0.1675623114077794</v>
       </c>
       <c r="C45">
-        <v>12.89593314459189</v>
+        <v>2.86576292102042</v>
       </c>
       <c r="D45">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E45">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F45">
-        <v>0.9344258897967973</v>
+        <v>0.2076501977326217</v>
       </c>
       <c r="G45">
-        <v>4.488969660508294</v>
+        <v>0.9975488134462875</v>
       </c>
       <c r="H45">
-        <v>0.06729703502166867</v>
+        <v>0.01495489667148194</v>
       </c>
       <c r="I45">
-        <v>1.896693082750628</v>
+        <v>0.4214873517223619</v>
       </c>
       <c r="J45">
-        <v>1.031813346139375</v>
+        <v>0.2292918546976389</v>
       </c>
       <c r="K45">
-        <v>5.196591891999656</v>
+        <v>1.154798198222146</v>
       </c>
       <c r="L45">
-        <v>0.616029764806995</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M45">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="N45">
-        <v>0.05161453038212322</v>
+        <v>0.01146989564047183</v>
       </c>
       <c r="O45">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="P45">
-        <v>32.84488732603453</v>
+        <v>7.298863850229895</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2512,49 +2512,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.324386730549948</v>
+        <v>0.2943081623444329</v>
       </c>
       <c r="C46">
-        <v>22.65054924114217</v>
+        <v>5.033455386920482</v>
       </c>
       <c r="D46">
-        <v>0.0003158260588984522</v>
+        <v>7.01835686441005E-05</v>
       </c>
       <c r="E46">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="F46">
-        <v>1.479507658844929</v>
+        <v>0.3287794797433174</v>
       </c>
       <c r="G46">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="H46">
-        <v>0.4710792451516809</v>
+        <v>0.1046842767003735</v>
       </c>
       <c r="I46">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="J46">
-        <v>1.382629883826762</v>
+        <v>0.3072510852948361</v>
       </c>
       <c r="K46">
-        <v>6.963433135279539</v>
+        <v>1.547429585617676</v>
       </c>
       <c r="L46">
-        <v>2.806357817454086</v>
+        <v>0.6236350705453523</v>
       </c>
       <c r="M46">
-        <v>17.09297028133476</v>
+        <v>3.798437840296615</v>
       </c>
       <c r="N46">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O46">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P46">
-        <v>74.88668542194966</v>
+        <v>16.64148564932215</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2562,49 +2562,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.686901346576394</v>
+        <v>0.3748669659058652</v>
       </c>
       <c r="C47">
-        <v>28.85051709911903</v>
+        <v>6.411226022026455</v>
       </c>
       <c r="D47">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E47">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F47">
-        <v>1.323770010545463</v>
+        <v>0.2941711134545473</v>
       </c>
       <c r="G47">
-        <v>6.359373685720086</v>
+        <v>1.41319415238224</v>
       </c>
       <c r="H47">
-        <v>0.4037822101300122</v>
+        <v>0.08972938002889158</v>
       </c>
       <c r="I47">
-        <v>11.38015849650377</v>
+        <v>2.528924110334171</v>
       </c>
       <c r="J47">
-        <v>0.7222693422975626</v>
+        <v>0.1605042982883472</v>
       </c>
       <c r="K47">
-        <v>3.637614324399759</v>
+        <v>0.8083587387555022</v>
       </c>
       <c r="L47">
-        <v>1.23205952961399</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M47">
-        <v>7.504230855220143</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="N47">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O47">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P47">
-        <v>63.66116251693725</v>
+        <v>14.14692500376383</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2612,49 +2612,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.541895500165816</v>
+        <v>0.3426434444812923</v>
       </c>
       <c r="C48">
-        <v>26.37052995592828</v>
+        <v>5.860117767984064</v>
       </c>
       <c r="D48">
-        <v>0.005369043001273689</v>
+        <v>0.001193120666949709</v>
       </c>
       <c r="E48">
-        <v>1.941989996786445</v>
+        <v>0.4315533326192101</v>
       </c>
       <c r="F48">
-        <v>2.102458252042794</v>
+        <v>0.4672129448983987</v>
       </c>
       <c r="G48">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H48">
-        <v>0.4172416171343458</v>
+        <v>0.09272035936318798</v>
       </c>
       <c r="I48">
-        <v>11.7594971130539</v>
+        <v>2.613221580678643</v>
       </c>
       <c r="J48">
-        <v>1.1556309476761</v>
+        <v>0.2568068772613555</v>
       </c>
       <c r="K48">
-        <v>5.820182919039616</v>
+        <v>1.293373982008803</v>
       </c>
       <c r="L48">
-        <v>1.779641542775762</v>
+        <v>0.3954758983946137</v>
       </c>
       <c r="M48">
-        <v>10.83944456865131</v>
+        <v>2.408765459700292</v>
       </c>
       <c r="N48">
-        <v>0.05161453038212322</v>
+        <v>0.01146989564047183</v>
       </c>
       <c r="O48">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="P48">
-        <v>74.7013992786168</v>
+        <v>16.60031095080373</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2662,49 +2662,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.389639361434708</v>
+        <v>0.3088087469854908</v>
       </c>
       <c r="C49">
-        <v>23.766543455578</v>
+        <v>5.281454101239555</v>
       </c>
       <c r="D49">
-        <v>0.006948173295765951</v>
+        <v>0.001544038510170211</v>
       </c>
       <c r="E49">
-        <v>2.513163525253046</v>
+        <v>0.558480783389566</v>
       </c>
       <c r="F49">
-        <v>1.479507658844929</v>
+        <v>0.3287794797433174</v>
       </c>
       <c r="G49">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="H49">
-        <v>0.6191327221993519</v>
+        <v>0.1375850493776339</v>
       </c>
       <c r="I49">
-        <v>17.44957636130578</v>
+        <v>3.87768363584573</v>
       </c>
       <c r="J49">
-        <v>2.001717891510387</v>
+        <v>0.4448261981134195</v>
       </c>
       <c r="K49">
-        <v>10.08138827047933</v>
+        <v>2.240308504550963</v>
       </c>
       <c r="L49">
-        <v>1.984984797711428</v>
+        <v>0.4411077328247617</v>
       </c>
       <c r="M49">
-        <v>12.090149711188</v>
+        <v>2.686699935819557</v>
       </c>
       <c r="N49">
-        <v>0.1161326933597773</v>
+        <v>0.02580726519106162</v>
       </c>
       <c r="O49">
-        <v>1.835373500629579</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P49">
-        <v>82.4417934185949</v>
+        <v>18.32039853746553</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.2529546431828978</v>
+        <v>1.138295894323039</v>
       </c>
       <c r="C2">
-        <v>4.326199794232749</v>
+        <v>19.46789907404738</v>
       </c>
       <c r="D2">
-        <v>0.00140367137288201</v>
+        <v>0.006316521177969045</v>
       </c>
       <c r="E2">
-        <v>0.5077098030814237</v>
+        <v>2.284694113866406</v>
       </c>
       <c r="F2">
-        <v>0.4672129448983987</v>
+        <v>2.102458252042794</v>
       </c>
       <c r="G2">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H2">
-        <v>0.06879252468881693</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I2">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J2">
-        <v>0.4677553835831834</v>
+        <v>2.104899226124325</v>
       </c>
       <c r="K2">
-        <v>2.355788324373178</v>
+        <v>10.6010474596793</v>
       </c>
       <c r="L2">
-        <v>0.8822154656495235</v>
+        <v>3.969969595422855</v>
       </c>
       <c r="M2">
-        <v>5.373399871639114</v>
+        <v>24.18029942237601</v>
       </c>
       <c r="N2">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O2">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P2">
-        <v>19.03131508924876</v>
+        <v>85.64091790161943</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.2534917018733072</v>
+        <v>1.140712658429883</v>
       </c>
       <c r="C3">
-        <v>4.335384931800123</v>
+        <v>19.50923219310055</v>
       </c>
       <c r="D3">
-        <v>0.001614222078814312</v>
+        <v>0.007263999354664404</v>
       </c>
       <c r="E3">
-        <v>0.5838662735436371</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="F3">
-        <v>0.4672129448983987</v>
+        <v>2.102458252042794</v>
       </c>
       <c r="G3">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H3">
-        <v>0.07178350402311326</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I3">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J3">
-        <v>0.4815128948650416</v>
+        <v>2.166808026892687</v>
       </c>
       <c r="K3">
-        <v>2.425076216266507</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="L3">
-        <v>0.7453199623590802</v>
+        <v>3.353939830615861</v>
       </c>
       <c r="M3">
-        <v>4.539596443281319</v>
+        <v>20.42818399476594</v>
       </c>
       <c r="N3">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O3">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P3">
-        <v>18.31703922788041</v>
+        <v>82.42667652546184</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.2588622887774028</v>
+        <v>1.164880299498312</v>
       </c>
       <c r="C4">
-        <v>4.427236307473852</v>
+        <v>19.92256338363234</v>
       </c>
       <c r="D4">
-        <v>0.0009825699610174071</v>
+        <v>0.004421564824578333</v>
       </c>
       <c r="E4">
-        <v>0.3553968621569965</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="F4">
-        <v>0.3114752965989324</v>
+        <v>1.401638834695196</v>
       </c>
       <c r="G4">
-        <v>1.496323220169431</v>
+        <v>6.733454490762441</v>
       </c>
       <c r="H4">
-        <v>0.05682860735163134</v>
+        <v>0.2557287330823411</v>
       </c>
       <c r="I4">
-        <v>1.601651936544975</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="J4">
-        <v>0.3485236191404111</v>
+        <v>1.56835628613185</v>
       </c>
       <c r="K4">
-        <v>1.755293261297662</v>
+        <v>7.898819675839478</v>
       </c>
       <c r="L4">
-        <v>0.5019501787316252</v>
+        <v>2.258775804292313</v>
       </c>
       <c r="M4">
-        <v>3.05727923731191</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="N4">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O4">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P4">
-        <v>14.26817406176224</v>
+        <v>64.20678327793006</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.3002158079389378</v>
+        <v>1.350971135725221</v>
       </c>
       <c r="C5">
-        <v>5.134491900161584</v>
+        <v>23.10521355072713</v>
       </c>
       <c r="D5">
-        <v>0.002175690627967116</v>
+        <v>0.009790607825852018</v>
       </c>
       <c r="E5">
-        <v>0.7869501947762065</v>
+        <v>3.541275876492929</v>
       </c>
       <c r="F5">
-        <v>0.6229505931978648</v>
+        <v>2.803277669390393</v>
       </c>
       <c r="G5">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H5">
-        <v>0.05383762801733496</v>
+        <v>0.2422693260780073</v>
       </c>
       <c r="I5">
-        <v>1.517354466200503</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="J5">
-        <v>0.5044420803348055</v>
+        <v>2.269989361506625</v>
       </c>
       <c r="K5">
-        <v>2.54055603608872</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="L5">
-        <v>0.5627926246384887</v>
+        <v>2.5325668108732</v>
       </c>
       <c r="M5">
-        <v>3.427858538804263</v>
+        <v>15.42536342461918</v>
       </c>
       <c r="N5">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O5">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P5">
-        <v>18.68719869174151</v>
+        <v>84.09239411283679</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.3152534512704054</v>
+        <v>1.418640530716825</v>
       </c>
       <c r="C6">
-        <v>5.391675752048032</v>
+        <v>24.26254088421614</v>
       </c>
       <c r="D6">
-        <v>0.00133348780423791</v>
+        <v>0.006000695119070593</v>
       </c>
       <c r="E6">
-        <v>0.4823243129273524</v>
+        <v>2.170459408173086</v>
       </c>
       <c r="F6">
-        <v>0.5883422269090947</v>
+        <v>2.647540021090926</v>
       </c>
       <c r="G6">
-        <v>2.826388304764481</v>
+        <v>12.71874737144017</v>
       </c>
       <c r="H6">
-        <v>0.05682860735163134</v>
+        <v>0.2557287330823411</v>
       </c>
       <c r="I6">
-        <v>1.601651936544975</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="J6">
-        <v>0.5273712658045694</v>
+        <v>2.373170696120563</v>
       </c>
       <c r="K6">
-        <v>2.656035855910935</v>
+        <v>11.95216135159921</v>
       </c>
       <c r="L6">
-        <v>0.5171607902083414</v>
+        <v>2.327223555937536</v>
       </c>
       <c r="M6">
-        <v>3.149924062684998</v>
+        <v>14.17465828208249</v>
       </c>
       <c r="N6">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O6">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P6">
-        <v>18.25884606859864</v>
+        <v>82.16480730869387</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.3109569817471289</v>
+        <v>1.39930641786208</v>
       </c>
       <c r="C7">
-        <v>5.318194651509049</v>
+        <v>23.93187593179072</v>
       </c>
       <c r="D7">
-        <v>0.00273715917711992</v>
+        <v>0.01231721629703964</v>
       </c>
       <c r="E7">
-        <v>0.990034116008776</v>
+        <v>4.455153522039491</v>
       </c>
       <c r="F7">
-        <v>0.4499087617540136</v>
+        <v>2.024589427893061</v>
       </c>
       <c r="G7">
-        <v>2.161355762466957</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="H7">
-        <v>0.07178350402311326</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I7">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J7">
-        <v>0.5044420803348055</v>
+        <v>2.269989361506625</v>
       </c>
       <c r="K7">
-        <v>2.54055603608872</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="L7">
-        <v>0.5019501787316252</v>
+        <v>2.258775804292313</v>
       </c>
       <c r="M7">
-        <v>3.05727923731191</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="N7">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O7">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P7">
-        <v>18.07689377179014</v>
+        <v>81.34602197305563</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.3635887334072647</v>
+        <v>1.636149300332691</v>
       </c>
       <c r="C8">
-        <v>6.21833813311162</v>
+        <v>27.98252159900228</v>
       </c>
       <c r="D8">
-        <v>0.003088077020340422</v>
+        <v>0.0138963465915319</v>
       </c>
       <c r="E8">
-        <v>1.116961566779132</v>
+        <v>5.026327050506093</v>
       </c>
       <c r="F8">
-        <v>0.6229505931978648</v>
+        <v>2.803277669390393</v>
       </c>
       <c r="G8">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H8">
-        <v>0.07477448335740967</v>
+        <v>0.3364851751083435</v>
       </c>
       <c r="I8">
-        <v>2.10743675861181</v>
+        <v>9.483465413753141</v>
       </c>
       <c r="J8">
-        <v>0.3760386417041278</v>
+        <v>1.692173887668575</v>
       </c>
       <c r="K8">
-        <v>1.893869045084319</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="L8">
-        <v>0.3802652869178978</v>
+        <v>1.71119379113054</v>
       </c>
       <c r="M8">
-        <v>2.316120634327204</v>
+        <v>10.42254285447242</v>
       </c>
       <c r="N8">
-        <v>0.02007231737082569</v>
+        <v>0.09032542816871564</v>
       </c>
       <c r="O8">
-        <v>0.3172250494915323</v>
+        <v>1.427512722711895</v>
       </c>
       <c r="P8">
-        <v>18.80337576072021</v>
+        <v>84.61519092324093</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,43 +830,43 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.4210540132810864</v>
+        <v>1.894743059764889</v>
       </c>
       <c r="C9">
-        <v>7.201147852820538</v>
+        <v>32.40516533769243</v>
       </c>
       <c r="D9">
-        <v>0.0008422028237292062</v>
+        <v>0.003789912706781427</v>
       </c>
       <c r="E9">
-        <v>0.3046258818488541</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="F9">
-        <v>0.3806920291764729</v>
+        <v>1.713114131294128</v>
       </c>
       <c r="G9">
-        <v>1.828839491318194</v>
+        <v>8.229777710931875</v>
       </c>
       <c r="H9">
-        <v>0.0658015453545205</v>
+        <v>0.2961069540953423</v>
       </c>
       <c r="I9">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="J9">
-        <v>0.2797360627311195</v>
+        <v>1.258812282290037</v>
       </c>
       <c r="K9">
-        <v>1.408853801831018</v>
+        <v>6.33984210823958</v>
       </c>
       <c r="L9">
-        <v>0.3194228410110341</v>
+        <v>1.437402784549655</v>
       </c>
       <c r="M9">
-        <v>1.945541332834851</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="P9">
-        <v>16.01110140260981</v>
+        <v>72.04995631174417</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.4022569591167524</v>
+        <v>1.810156316025384</v>
       </c>
       <c r="C10">
-        <v>6.879668037962479</v>
+        <v>30.95850617083117</v>
       </c>
       <c r="D10">
-        <v>0.0004912849805087036</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E10">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F10">
-        <v>0.3633878460320877</v>
+        <v>1.635245307144395</v>
       </c>
       <c r="G10">
-        <v>1.745710423531003</v>
+        <v>7.855696905889514</v>
       </c>
       <c r="H10">
-        <v>0.1076752560346699</v>
+        <v>0.4845386521560146</v>
       </c>
       <c r="I10">
-        <v>3.034708932401005</v>
+        <v>13.65619019580452</v>
       </c>
       <c r="J10">
-        <v>0.2247060176036861</v>
+        <v>1.011177079216588</v>
       </c>
       <c r="K10">
-        <v>1.131702234257703</v>
+        <v>5.092660054159663</v>
       </c>
       <c r="L10">
-        <v>0.1673167262438751</v>
+        <v>0.752925268097438</v>
       </c>
       <c r="M10">
-        <v>1.01909307910397</v>
+        <v>4.585918855967866</v>
       </c>
       <c r="N10">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O10">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P10">
-        <v>15.30260056646943</v>
+        <v>68.86170254911245</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.290548751511566</v>
+        <v>1.307469381802047</v>
       </c>
       <c r="C11">
-        <v>4.96915942394887</v>
+        <v>22.36121740776992</v>
       </c>
       <c r="D11">
-        <v>0.0004211014118646031</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E11">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F11">
-        <v>0.2941711134545473</v>
+        <v>1.323770010545463</v>
       </c>
       <c r="G11">
-        <v>1.41319415238224</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="H11">
-        <v>0.08972938002889158</v>
+        <v>0.4037822101300122</v>
       </c>
       <c r="I11">
-        <v>2.528924110334171</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="J11">
-        <v>0.1008884160669611</v>
+        <v>0.453997872301325</v>
       </c>
       <c r="K11">
-        <v>0.5081112072177443</v>
+        <v>2.286500432479849</v>
       </c>
       <c r="L11">
-        <v>0.2585803951041707</v>
+        <v>1.163611777968768</v>
       </c>
       <c r="M11">
-        <v>1.574962031342499</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="N11">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O11">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P11">
-        <v>12.22918836185115</v>
+        <v>55.03134762833018</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.2610105235390408</v>
+        <v>1.174547355925684</v>
       </c>
       <c r="C12">
-        <v>4.463976857743345</v>
+        <v>20.08789585984506</v>
       </c>
       <c r="D12">
-        <v>0.001263304235593809</v>
+        <v>0.00568486906017214</v>
       </c>
       <c r="E12">
-        <v>0.4569388227732812</v>
+        <v>2.056224702479765</v>
       </c>
       <c r="F12">
-        <v>0.2595627471657771</v>
+        <v>1.168032362245996</v>
       </c>
       <c r="G12">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H12">
-        <v>0.07776546269170606</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I12">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J12">
-        <v>0.09630257897300834</v>
+        <v>0.4333616053785375</v>
       </c>
       <c r="K12">
-        <v>0.4850152432533013</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="L12">
-        <v>0.1368955032904432</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M12">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N12">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O12">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P12">
-        <v>10.55939005591062</v>
+        <v>47.51725525159782</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.1901187764049805</v>
+        <v>0.8555344938224116</v>
       </c>
       <c r="C13">
-        <v>3.25153869885009</v>
+        <v>14.63192414482541</v>
       </c>
       <c r="D13">
-        <v>0.000280734274576402</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E13">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F13">
-        <v>0.2249543808770068</v>
+        <v>1.012294713946531</v>
       </c>
       <c r="G13">
-        <v>1.080677881233478</v>
+        <v>4.863050465550652</v>
       </c>
       <c r="H13">
-        <v>0.07776546269170606</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I13">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J13">
-        <v>0.07337339350324444</v>
+        <v>0.3301802707645999</v>
       </c>
       <c r="K13">
-        <v>0.3695354234310867</v>
+        <v>1.66290940543989</v>
       </c>
       <c r="L13">
-        <v>0.1216848918137273</v>
+        <v>0.5475820131617729</v>
       </c>
       <c r="M13">
-        <v>0.7411586029847055</v>
+        <v>3.335213713431174</v>
       </c>
       <c r="N13">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O13">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P13">
-        <v>8.472549773760361</v>
+        <v>38.12647398192163</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.09774468165453798</v>
+        <v>0.4398510674454206</v>
       </c>
       <c r="C14">
-        <v>1.671695037261912</v>
+        <v>7.522627667678602</v>
       </c>
       <c r="D14">
-        <v>0.000140367137288201</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E14">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F14">
-        <v>0.0865209157219257</v>
+        <v>0.3893441207486655</v>
       </c>
       <c r="G14">
-        <v>0.4156453389359533</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="H14">
-        <v>0.05084664868303858</v>
+        <v>0.2288099190736735</v>
       </c>
       <c r="I14">
-        <v>1.433056995856031</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="J14">
-        <v>0.05503004512743333</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K14">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L14">
-        <v>0.04563183443014776</v>
+        <v>0.2053432549356649</v>
       </c>
       <c r="M14">
-        <v>0.2779344761192645</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="P14">
-        <v>4.462168888808988</v>
+        <v>20.07975999964045</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,43 +1118,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.07948468618061329</v>
+        <v>0.3576810878127596</v>
       </c>
       <c r="C15">
-        <v>1.359400359971225</v>
+        <v>6.117301619870513</v>
       </c>
       <c r="D15">
-        <v>0.0004912849805087036</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E15">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F15">
-        <v>0.1384334651550811</v>
+        <v>0.6229505931978648</v>
       </c>
       <c r="G15">
-        <v>0.6650325422975251</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H15">
-        <v>0.01794587600577831</v>
+        <v>0.08075644202600243</v>
       </c>
       <c r="I15">
-        <v>0.5057848220668343</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="J15">
-        <v>0.1375751128185833</v>
+        <v>0.6190880076836249</v>
       </c>
       <c r="K15">
-        <v>0.6928789189332873</v>
+        <v>3.117955135199794</v>
       </c>
       <c r="L15">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M15">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P15">
-        <v>4.314002683736956</v>
+        <v>19.4130120768163</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1162,31 +1162,31 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.0649841015395554</v>
+        <v>0.2924284569279995</v>
       </c>
       <c r="C16">
-        <v>1.11140164565215</v>
+        <v>5.001307405434676</v>
       </c>
       <c r="D16">
-        <v>0.0004211014118646031</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E16">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="J16">
-        <v>0.05961588222138611</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K16">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L16">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M16">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P16">
-        <v>2.228260387536162</v>
+        <v>10.02717174391273</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1194,37 +1194,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.03544587356703024</v>
+        <v>0.1595064310516361</v>
       </c>
       <c r="C17">
-        <v>0.6062190794466272</v>
+        <v>2.727985857509822</v>
       </c>
       <c r="D17">
-        <v>7.01835686441005E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E17">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F17">
-        <v>0.05191254943315542</v>
+        <v>0.2336064724491993</v>
       </c>
       <c r="G17">
-        <v>0.2493872033615719</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="J17">
-        <v>0.041272533845575</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K17">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L17">
-        <v>0.03042122295343182</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M17">
-        <v>0.1852896507461764</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P17">
-        <v>1.43326746275627</v>
+        <v>6.449703582403212</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1232,37 +1232,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.02792705190129656</v>
+        <v>0.1256717335558344</v>
       </c>
       <c r="C18">
-        <v>0.4776271535034033</v>
+        <v>2.149322190765315</v>
       </c>
       <c r="D18">
-        <v>7.01835686441005E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E18">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F18">
-        <v>0.01730418314438514</v>
+        <v>0.0778688241497331</v>
       </c>
       <c r="G18">
-        <v>0.08312906778719063</v>
+        <v>0.3740808050423579</v>
       </c>
       <c r="J18">
-        <v>0.02292918546976389</v>
+        <v>0.1031813346139375</v>
       </c>
       <c r="K18">
-        <v>0.1154798198222146</v>
+        <v>0.5196591891999656</v>
       </c>
       <c r="L18">
-        <v>0.06084244590686365</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M18">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="P18">
-        <v>1.201273882750186</v>
+        <v>5.405732472375836</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,43 +1270,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.02685293452047746</v>
+        <v>0.1208382053421485</v>
       </c>
       <c r="C19">
-        <v>0.4592568783686573</v>
+        <v>2.066655952658956</v>
       </c>
       <c r="D19">
-        <v>0.0003509178432205025</v>
+        <v>0.001579130294492261</v>
       </c>
       <c r="E19">
-        <v>0.1269274507703559</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="F19">
-        <v>0.03460836628877027</v>
+        <v>0.1557376482994662</v>
       </c>
       <c r="G19">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="H19">
-        <v>0.01196391733718555</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I19">
-        <v>0.3371898813778896</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J19">
-        <v>0.05503004512743333</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K19">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L19">
-        <v>0.06084244590686365</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M19">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="P19">
-        <v>1.927011842180903</v>
+        <v>8.67155328981406</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1314,31 +1314,31 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.04940939951767848</v>
+        <v>0.2223422978295534</v>
       </c>
       <c r="C20">
-        <v>0.8450326561983288</v>
+        <v>3.80264695289248</v>
       </c>
       <c r="D20">
-        <v>0.000140367137288201</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E20">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="J20">
-        <v>0.05044420803348055</v>
+        <v>0.2269989361506625</v>
       </c>
       <c r="K20">
-        <v>0.2540556036088721</v>
+        <v>1.143250216239925</v>
       </c>
       <c r="L20">
-        <v>0.1368955032904432</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M20">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="P20">
-        <v>2.220552146452027</v>
+        <v>9.992484659034126</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,49 +1346,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.1664881940269602</v>
+        <v>0.7491968731213211</v>
       </c>
       <c r="C21">
-        <v>2.847392645885673</v>
+        <v>12.81326690648553</v>
       </c>
       <c r="D21">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E21">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F21">
-        <v>0.3806920291764729</v>
+        <v>1.713114131294128</v>
       </c>
       <c r="G21">
-        <v>1.828839491318194</v>
+        <v>8.229777710931875</v>
       </c>
       <c r="H21">
-        <v>0.01794587600577831</v>
+        <v>0.08075644202600243</v>
       </c>
       <c r="I21">
-        <v>0.5057848220668343</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="J21">
-        <v>0.1696759724762528</v>
+        <v>0.7635418761431374</v>
       </c>
       <c r="K21">
-        <v>0.8545506666843882</v>
+        <v>3.845478000079746</v>
       </c>
       <c r="L21">
-        <v>0.1368955032904432</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M21">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N21">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O21">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P21">
-        <v>7.914806326703325</v>
+        <v>35.61662847016497</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1396,49 +1396,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.2851781646074706</v>
+        <v>1.283301740733618</v>
       </c>
       <c r="C22">
-        <v>4.877308048275138</v>
+        <v>21.94788621723812</v>
       </c>
       <c r="D22">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E22">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F22">
-        <v>0.5018213111871691</v>
+        <v>2.25819590034226</v>
       </c>
       <c r="G22">
-        <v>2.410742965828528</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="H22">
-        <v>0.1046842767003735</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I22">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J22">
-        <v>0.3026652482008834</v>
+        <v>1.361993616903975</v>
       </c>
       <c r="K22">
-        <v>1.524333621653233</v>
+        <v>6.859501297439547</v>
       </c>
       <c r="L22">
-        <v>0.4715289557781932</v>
+        <v>2.121880301001871</v>
       </c>
       <c r="M22">
-        <v>2.871989586565733</v>
+        <v>12.9239531395458</v>
       </c>
       <c r="N22">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O22">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P22">
-        <v>16.42521600014459</v>
+        <v>73.91347200065069</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1446,49 +1446,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.3684222616209506</v>
+        <v>1.657900177294278</v>
       </c>
       <c r="C23">
-        <v>6.301004371217977</v>
+        <v>28.35451967048089</v>
       </c>
       <c r="D23">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E23">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F23">
-        <v>0.242258564021392</v>
+        <v>1.090163538096263</v>
       </c>
       <c r="G23">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H23">
-        <v>0.09571133869748438</v>
+        <v>0.4307010241386797</v>
       </c>
       <c r="I23">
-        <v>2.697519051023117</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="J23">
-        <v>0.1788476466641584</v>
+        <v>0.8048144099887126</v>
       </c>
       <c r="K23">
-        <v>0.900742594613274</v>
+        <v>4.053341675759731</v>
       </c>
       <c r="L23">
-        <v>0.2433697836274546</v>
+        <v>1.095164026323546</v>
       </c>
       <c r="M23">
-        <v>1.482317205969411</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="N23">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O23">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P23">
-        <v>13.84673746389042</v>
+        <v>62.31031858750688</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1496,49 +1496,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.3571440291223502</v>
+        <v>1.607148131050576</v>
       </c>
       <c r="C24">
-        <v>6.108116482303138</v>
+        <v>27.48652417036413</v>
       </c>
       <c r="D24">
-        <v>0.001122937098305608</v>
+        <v>0.005053216942375235</v>
       </c>
       <c r="E24">
-        <v>0.4061678424651389</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="F24">
-        <v>0.4153003954652433</v>
+        <v>1.868851779593595</v>
       </c>
       <c r="G24">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H24">
-        <v>0.08374742136029883</v>
+        <v>0.3768633961213446</v>
       </c>
       <c r="I24">
-        <v>2.360329169645226</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="J24">
-        <v>0.24763520307345</v>
+        <v>1.114358413830525</v>
       </c>
       <c r="K24">
-        <v>1.247182054079917</v>
+        <v>5.612319243359629</v>
       </c>
       <c r="L24">
-        <v>0.4411077328247617</v>
+        <v>1.984984797711428</v>
       </c>
       <c r="M24">
-        <v>2.686699935819557</v>
+        <v>12.090149711188</v>
       </c>
       <c r="N24">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O24">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P24">
-        <v>16.49420684451955</v>
+        <v>74.22393080033798</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1546,49 +1546,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.3088087469854908</v>
+        <v>1.389639361434708</v>
       </c>
       <c r="C25">
-        <v>5.281454101239555</v>
+        <v>23.766543455578</v>
       </c>
       <c r="D25">
-        <v>0.001544038510170211</v>
+        <v>0.006948173295765951</v>
       </c>
       <c r="E25">
-        <v>0.558480783389566</v>
+        <v>2.513163525253046</v>
       </c>
       <c r="F25">
-        <v>0.3287794797433174</v>
+        <v>1.479507658844929</v>
       </c>
       <c r="G25">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H25">
-        <v>0.1375850493776339</v>
+        <v>0.6191327221993519</v>
       </c>
       <c r="I25">
-        <v>3.87768363584573</v>
+        <v>17.44957636130578</v>
       </c>
       <c r="J25">
-        <v>0.4448261981134195</v>
+        <v>2.001717891510387</v>
       </c>
       <c r="K25">
-        <v>2.240308504550963</v>
+        <v>10.08138827047933</v>
       </c>
       <c r="L25">
-        <v>0.4411077328247617</v>
+        <v>1.984984797711428</v>
       </c>
       <c r="M25">
-        <v>2.686699935819557</v>
+        <v>12.090149711188</v>
       </c>
       <c r="N25">
-        <v>0.02580726519106162</v>
+        <v>0.1161326933597773</v>
       </c>
       <c r="O25">
-        <v>0.4078607779176843</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="P25">
-        <v>18.32039853746553</v>
+        <v>82.4417934185949</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1596,49 +1596,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.2604734648486315</v>
+        <v>1.17213059181884</v>
       </c>
       <c r="C26">
-        <v>4.454791720175972</v>
+        <v>20.04656274079188</v>
       </c>
       <c r="D26">
-        <v>0.001193120666949709</v>
+        <v>0.005369043001273689</v>
       </c>
       <c r="E26">
-        <v>0.4315533326192101</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="F26">
-        <v>0.4153003954652433</v>
+        <v>1.868851779593595</v>
       </c>
       <c r="G26">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H26">
-        <v>0.06879252468881693</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I26">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J26">
-        <v>0.4998562432408528</v>
+        <v>2.249353094583837</v>
       </c>
       <c r="K26">
-        <v>2.517460072124278</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="L26">
-        <v>1.049532191893398</v>
+        <v>4.722894863520294</v>
       </c>
       <c r="M26">
-        <v>6.392492950743085</v>
+        <v>28.76621827834387</v>
       </c>
       <c r="N26">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O26">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P26">
-        <v>20.16994147565146</v>
+        <v>90.76473664043156</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1646,49 +1646,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.2459728802075735</v>
+        <v>1.10687796093408</v>
       </c>
       <c r="C27">
-        <v>4.206793005856898</v>
+        <v>18.93056852635604</v>
       </c>
       <c r="D27">
-        <v>0.001824772784746614</v>
+        <v>0.00821147753135976</v>
       </c>
       <c r="E27">
-        <v>0.6600227440058506</v>
+        <v>2.970102348026328</v>
       </c>
       <c r="F27">
-        <v>0.4153003954652433</v>
+        <v>1.868851779593595</v>
       </c>
       <c r="G27">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H27">
-        <v>0.05981958668592775</v>
+        <v>0.2691881400866747</v>
       </c>
       <c r="I27">
-        <v>1.685949406889448</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="J27">
-        <v>0.5457146141803805</v>
+        <v>2.455715763811713</v>
       </c>
       <c r="K27">
-        <v>2.748419711768707</v>
+        <v>12.36788870295918</v>
       </c>
       <c r="L27">
-        <v>0.9582685230331026</v>
+        <v>4.312208353648961</v>
       </c>
       <c r="M27">
-        <v>5.836623998504554</v>
+        <v>26.26480799327049</v>
       </c>
       <c r="N27">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O27">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P27">
-        <v>19.45617794252139</v>
+        <v>87.55280074134629</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1696,49 +1696,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.2432875867555258</v>
+        <v>1.094794140399865</v>
       </c>
       <c r="C28">
-        <v>4.160867318020034</v>
+        <v>18.72390293109015</v>
       </c>
       <c r="D28">
-        <v>0.0007720192550851056</v>
+        <v>0.003474086647882975</v>
       </c>
       <c r="E28">
-        <v>0.279240391694783</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="F28">
-        <v>0.242258564021392</v>
+        <v>1.090163538096263</v>
       </c>
       <c r="G28">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H28">
-        <v>0.07178350402311326</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I28">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J28">
-        <v>0.2934935740129778</v>
+        <v>1.3207210830584</v>
       </c>
       <c r="K28">
-        <v>1.478141693724347</v>
+        <v>6.651637621759559</v>
       </c>
       <c r="L28">
-        <v>0.5171607902083414</v>
+        <v>2.327223555937536</v>
       </c>
       <c r="M28">
-        <v>3.149924062684998</v>
+        <v>14.17465828208249</v>
       </c>
       <c r="N28">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O28">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P28">
-        <v>13.76843175605818</v>
+        <v>61.95794290226183</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1746,49 +1746,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.3007528666293476</v>
+        <v>1.353387899832064</v>
       </c>
       <c r="C29">
-        <v>5.143677037728955</v>
+        <v>23.14654666978031</v>
       </c>
       <c r="D29">
-        <v>0.002175690627967116</v>
+        <v>0.009790607825852018</v>
       </c>
       <c r="E29">
-        <v>0.7869501947762065</v>
+        <v>3.541275876492929</v>
       </c>
       <c r="F29">
-        <v>0.7786882414973311</v>
+        <v>3.504097086737989</v>
       </c>
       <c r="G29">
-        <v>3.740808050423579</v>
+        <v>16.8336362269061</v>
       </c>
       <c r="H29">
-        <v>0.08972938002889158</v>
+        <v>0.4037822101300122</v>
       </c>
       <c r="I29">
-        <v>2.528924110334171</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="J29">
-        <v>0.4815128948650416</v>
+        <v>2.166808026892687</v>
       </c>
       <c r="K29">
-        <v>2.425076216266507</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="L29">
-        <v>0.7757411853125117</v>
+        <v>3.490835333906303</v>
       </c>
       <c r="M29">
-        <v>4.724886094027497</v>
+        <v>21.26198742312373</v>
       </c>
       <c r="N29">
-        <v>0.02293979128094366</v>
+        <v>0.1032290607642464</v>
       </c>
       <c r="O29">
-        <v>0.3625429137046082</v>
+        <v>1.631443111670737</v>
       </c>
       <c r="P29">
-        <v>22.16440466750356</v>
+        <v>99.739821003766</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1796,49 +1796,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.267992286514365</v>
+        <v>1.205965289314642</v>
       </c>
       <c r="C30">
-        <v>4.583383646119198</v>
+        <v>20.62522640753638</v>
       </c>
       <c r="D30">
-        <v>0.001052753529661508</v>
+        <v>0.004737390883476786</v>
       </c>
       <c r="E30">
-        <v>0.3807823523110677</v>
+        <v>1.713520585399804</v>
       </c>
       <c r="F30">
-        <v>0.6229505931978648</v>
+        <v>2.803277669390393</v>
       </c>
       <c r="G30">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H30">
-        <v>0.04785566934874219</v>
+        <v>0.2153505120693398</v>
       </c>
       <c r="I30">
-        <v>1.348759525511558</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="J30">
-        <v>0.536542939992475</v>
+        <v>2.414443229966138</v>
       </c>
       <c r="K30">
-        <v>2.702227783839822</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="L30">
-        <v>0.3802652869178978</v>
+        <v>1.71119379113054</v>
       </c>
       <c r="M30">
-        <v>2.316120634327204</v>
+        <v>10.42254285447242</v>
       </c>
       <c r="N30">
-        <v>0.01146989564047183</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O30">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P30">
-        <v>16.3733212644415</v>
+        <v>73.67994568998671</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1846,49 +1846,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.3200869794840912</v>
+        <v>1.440391407678411</v>
       </c>
       <c r="C31">
-        <v>5.474341990154393</v>
+        <v>24.63453895569476</v>
       </c>
       <c r="D31">
-        <v>0.001824772784746614</v>
+        <v>0.00821147753135976</v>
       </c>
       <c r="E31">
-        <v>0.6600227440058506</v>
+        <v>2.970102348026328</v>
       </c>
       <c r="F31">
-        <v>0.6056464100534795</v>
+        <v>2.72540884524066</v>
       </c>
       <c r="G31">
-        <v>2.909517372551673</v>
+        <v>13.09282817648253</v>
       </c>
       <c r="H31">
-        <v>0.05981958668592775</v>
+        <v>0.2691881400866747</v>
       </c>
       <c r="I31">
-        <v>1.685949406889448</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="J31">
-        <v>0.4585837093952777</v>
+        <v>2.063626692278749</v>
       </c>
       <c r="K31">
-        <v>2.309596396444292</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="L31">
-        <v>0.532371401685057</v>
+        <v>2.395671307582756</v>
       </c>
       <c r="M31">
-        <v>3.242568888058086</v>
+        <v>14.59155999626138</v>
       </c>
       <c r="N31">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O31">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P31">
-        <v>18.50125634880829</v>
+        <v>83.2556535696373</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1896,49 +1896,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.3716446137634078</v>
+        <v>1.672400761935336</v>
       </c>
       <c r="C32">
-        <v>6.356115196622215</v>
+        <v>28.60251838479996</v>
       </c>
       <c r="D32">
-        <v>0.002596792039831719</v>
+        <v>0.01168556417924273</v>
       </c>
       <c r="E32">
-        <v>0.9392631357006338</v>
+        <v>4.226684110652851</v>
       </c>
       <c r="F32">
-        <v>0.5710380437647095</v>
+        <v>2.569671196941194</v>
       </c>
       <c r="G32">
-        <v>2.743259236977292</v>
+        <v>12.34466656639781</v>
       </c>
       <c r="H32">
-        <v>0.07178350402311326</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I32">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J32">
-        <v>0.3760386417041278</v>
+        <v>1.692173887668575</v>
       </c>
       <c r="K32">
-        <v>1.893869045084319</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="L32">
-        <v>0.6844775164522164</v>
+        <v>3.080148824034973</v>
       </c>
       <c r="M32">
-        <v>4.169017141788967</v>
+        <v>18.76057713805035</v>
       </c>
       <c r="N32">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O32">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P32">
-        <v>20.44316884680414</v>
+        <v>91.99425981061862</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1946,43 +1946,43 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.4274987175660011</v>
+        <v>1.923744229047004</v>
       </c>
       <c r="C33">
-        <v>7.311369503629018</v>
+        <v>32.90116276633059</v>
       </c>
       <c r="D33">
-        <v>0.0006316521177969044</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E33">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F33">
-        <v>0.2768669303101622</v>
+        <v>1.24590118639573</v>
       </c>
       <c r="G33">
-        <v>1.33006508459505</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="H33">
-        <v>0.05981958668592775</v>
+        <v>0.2691881400866747</v>
       </c>
       <c r="I33">
-        <v>1.685949406889448</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="J33">
-        <v>0.2430493659794972</v>
+        <v>1.093722146907737</v>
       </c>
       <c r="K33">
-        <v>1.224086090115475</v>
+        <v>5.508387405519635</v>
       </c>
       <c r="L33">
-        <v>0.2890016180576023</v>
+        <v>1.30050728125921</v>
       </c>
       <c r="M33">
-        <v>1.760251682088676</v>
+        <v>7.921132569399039</v>
       </c>
       <c r="P33">
-        <v>14.83705904942129</v>
+        <v>66.76676572239582</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1990,49 +1990,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>0.4436104782782875</v>
+        <v>1.996247152252294</v>
       </c>
       <c r="C34">
-        <v>7.586923630650213</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="D34">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E34">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F34">
-        <v>0.242258564021392</v>
+        <v>1.090163538096263</v>
       </c>
       <c r="G34">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H34">
-        <v>0.1046842767003735</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I34">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J34">
-        <v>0.24763520307345</v>
+        <v>1.114358413830525</v>
       </c>
       <c r="K34">
-        <v>1.247182054079917</v>
+        <v>5.612319243359629</v>
       </c>
       <c r="L34">
-        <v>0.1064742803370114</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M34">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="N34">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O34">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P34">
-        <v>14.914238373244</v>
+        <v>67.114072679598</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2040,49 +2040,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.3104199230567193</v>
+        <v>1.396889653755237</v>
       </c>
       <c r="C35">
-        <v>5.309009513941675</v>
+        <v>23.89054281273754</v>
       </c>
       <c r="D35">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E35">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F35">
-        <v>0.2249543808770068</v>
+        <v>1.012294713946531</v>
       </c>
       <c r="G35">
-        <v>1.080677881233478</v>
+        <v>4.863050465550652</v>
       </c>
       <c r="H35">
-        <v>0.08075644202600243</v>
+        <v>0.363403989117011</v>
       </c>
       <c r="I35">
-        <v>2.276031699300755</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="J35">
-        <v>0.1284034386306778</v>
+        <v>0.5778154738380499</v>
       </c>
       <c r="K35">
-        <v>0.6466869910044017</v>
+        <v>2.910091459519808</v>
       </c>
       <c r="L35">
-        <v>0.3194228410110341</v>
+        <v>1.437402784549655</v>
       </c>
       <c r="M35">
-        <v>1.945541332834851</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="N35">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O35">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P35">
-        <v>12.49464214133114</v>
+        <v>56.22588963599011</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2090,49 +2090,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.2953822797252521</v>
+        <v>1.329220258763633</v>
       </c>
       <c r="C36">
-        <v>5.051825662055226</v>
+        <v>22.73321547924851</v>
       </c>
       <c r="D36">
-        <v>0.0004211014118646031</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E36">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F36">
-        <v>0.1557376482994662</v>
+        <v>0.7008194173475982</v>
       </c>
       <c r="G36">
-        <v>0.7481616100847157</v>
+        <v>3.36672724538122</v>
       </c>
       <c r="H36">
-        <v>0.09870231803178076</v>
+        <v>0.4441604311430135</v>
       </c>
       <c r="I36">
-        <v>2.781816521367589</v>
+        <v>12.51817434615415</v>
       </c>
       <c r="J36">
-        <v>0.1100600902548667</v>
+        <v>0.4952704061468999</v>
       </c>
       <c r="K36">
-        <v>0.5543031351466299</v>
+        <v>2.494364108159835</v>
       </c>
       <c r="L36">
-        <v>0.1368955032904432</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M36">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N36">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O36">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P36">
-        <v>11.01579291519644</v>
+        <v>49.57106811838399</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2140,49 +2140,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.2083787718789051</v>
+        <v>0.9377044734550724</v>
       </c>
       <c r="C37">
-        <v>3.563833376140778</v>
+        <v>16.03725019263351</v>
       </c>
       <c r="D37">
-        <v>0.000140367137288201</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E37">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F37">
-        <v>0.1903460145882365</v>
+        <v>0.8565570656470642</v>
       </c>
       <c r="G37">
-        <v>0.9144197456590971</v>
+        <v>4.114888855465938</v>
       </c>
       <c r="H37">
-        <v>0.07178350402311326</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I37">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J37">
-        <v>0.1467467870064889</v>
+        <v>0.6603605415291999</v>
       </c>
       <c r="K37">
-        <v>0.7390708468621734</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="L37">
-        <v>0.1521061147671592</v>
+        <v>0.6844775164522163</v>
       </c>
       <c r="M37">
-        <v>0.926448253730882</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="N37">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O37">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P37">
-        <v>9.08355472661599</v>
+        <v>40.87599626977197</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.1074117380819098</v>
+        <v>0.4833528213685942</v>
       </c>
       <c r="C38">
-        <v>1.837027513474629</v>
+        <v>8.266623810635824</v>
       </c>
       <c r="D38">
-        <v>0.000140367137288201</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E38">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F38">
-        <v>0.0865209157219257</v>
+        <v>0.3893441207486655</v>
       </c>
       <c r="G38">
-        <v>0.4156453389359533</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="H38">
-        <v>0.05084664868303858</v>
+        <v>0.2288099190736735</v>
       </c>
       <c r="I38">
-        <v>1.433056995856031</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="J38">
-        <v>0.06420171931533888</v>
+        <v>0.2889077369190249</v>
       </c>
       <c r="K38">
-        <v>0.3233434955022009</v>
+        <v>1.455045729759904</v>
       </c>
       <c r="L38">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M38">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P38">
-        <v>4.908242897265477</v>
+        <v>22.08709303769464</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,43 +2234,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.09291115344085196</v>
+        <v>0.4181001904838339</v>
       </c>
       <c r="C39">
-        <v>1.589028799155554</v>
+        <v>7.15062959619999</v>
       </c>
       <c r="D39">
-        <v>0.0007720192550851056</v>
+        <v>0.003474086647882975</v>
       </c>
       <c r="E39">
-        <v>0.279240391694783</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="F39">
-        <v>0.1557376482994662</v>
+        <v>0.7008194173475982</v>
       </c>
       <c r="G39">
-        <v>0.7481616100847157</v>
+        <v>3.36672724538122</v>
       </c>
       <c r="H39">
-        <v>0.01196391733718555</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I39">
-        <v>0.3371898813778896</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J39">
-        <v>0.1008884160669611</v>
+        <v>0.453997872301325</v>
       </c>
       <c r="K39">
-        <v>0.5081112072177443</v>
+        <v>2.286500432479849</v>
       </c>
       <c r="L39">
-        <v>0.06084244590686365</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M39">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="P39">
-        <v>4.255426791329453</v>
+        <v>19.14942056098253</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,31 +2278,31 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.07142880582447002</v>
+        <v>0.3214296262101152</v>
       </c>
       <c r="C40">
-        <v>1.221623296460628</v>
+        <v>5.497304834072823</v>
       </c>
       <c r="D40">
-        <v>0.0007720192550851056</v>
+        <v>0.003474086647882975</v>
       </c>
       <c r="E40">
-        <v>0.279240391694783</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="J40">
-        <v>0.07795923059719724</v>
+        <v>0.3508165376873875</v>
       </c>
       <c r="K40">
-        <v>0.3926313873955297</v>
+        <v>1.766841243279883</v>
       </c>
       <c r="L40">
-        <v>0.1064742803370114</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M40">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="P40">
-        <v>2.798643189176321</v>
+        <v>12.59389435129344</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2310,37 +2310,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.04403881261358302</v>
+        <v>0.1981746567611238</v>
       </c>
       <c r="C41">
-        <v>0.7531812805245975</v>
+        <v>3.389315762360688</v>
       </c>
       <c r="D41">
-        <v>7.01835686441005E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E41">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F41">
-        <v>0.05191254943315542</v>
+        <v>0.2336064724491993</v>
       </c>
       <c r="G41">
-        <v>0.2493872033615719</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="J41">
-        <v>0.041272533845575</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K41">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L41">
-        <v>0.04563183443014776</v>
+        <v>0.2053432549356649</v>
       </c>
       <c r="M41">
-        <v>0.2779344761192645</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="P41">
-        <v>1.696678039730597</v>
+        <v>7.635051178787685</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2348,37 +2348,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.03759410832866845</v>
+        <v>0.169173487479008</v>
       </c>
       <c r="C42">
-        <v>0.6429596297161194</v>
+        <v>2.893318333722538</v>
       </c>
       <c r="D42">
-        <v>7.01835686441005E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E42">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F42">
-        <v>0.03460836628877027</v>
+        <v>0.1557376482994662</v>
       </c>
       <c r="G42">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="J42">
-        <v>0.02292918546976389</v>
+        <v>0.1031813346139375</v>
       </c>
       <c r="K42">
-        <v>0.1154798198222146</v>
+        <v>0.5196591891999656</v>
       </c>
       <c r="L42">
-        <v>0.06084244590686365</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M42">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="P42">
-        <v>1.47670666632185</v>
+        <v>6.645179998448323</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2386,43 +2386,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.02738999321088699</v>
+        <v>0.1232549694489915</v>
       </c>
       <c r="C43">
-        <v>0.4684420159360303</v>
+        <v>2.107989071712135</v>
       </c>
       <c r="D43">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E43">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F43">
-        <v>0.03460836628877027</v>
+        <v>0.1557376482994662</v>
       </c>
       <c r="G43">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="H43">
-        <v>0.005981958668592774</v>
+        <v>0.02691881400866748</v>
       </c>
       <c r="I43">
-        <v>0.1685949406889448</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="J43">
-        <v>0.041272533845575</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K43">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L43">
-        <v>0.09126366886029552</v>
+        <v>0.4106865098713298</v>
       </c>
       <c r="M43">
-        <v>0.5558689522385291</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="P43">
-        <v>1.843911262160138</v>
+        <v>8.29760067972062</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2430,31 +2430,31 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.04887234082726899</v>
+        <v>0.2199255337227103</v>
       </c>
       <c r="C44">
-        <v>0.835847518630956</v>
+        <v>3.761313833839301</v>
       </c>
       <c r="D44">
-        <v>0.000140367137288201</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E44">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="J44">
-        <v>0.05503004512743333</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K44">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L44">
-        <v>0.1673167262438751</v>
+        <v>0.752925268097438</v>
       </c>
       <c r="M44">
-        <v>1.01909307910397</v>
+        <v>4.585918855967866</v>
       </c>
       <c r="P44">
-        <v>2.454222624952249</v>
+        <v>11.04400181228512</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.1675623114077794</v>
+        <v>0.7540304013350069</v>
       </c>
       <c r="C45">
-        <v>2.86576292102042</v>
+        <v>12.89593314459189</v>
       </c>
       <c r="D45">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E45">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F45">
-        <v>0.2076501977326217</v>
+        <v>0.9344258897967973</v>
       </c>
       <c r="G45">
-        <v>0.9975488134462875</v>
+        <v>4.488969660508294</v>
       </c>
       <c r="H45">
-        <v>0.01495489667148194</v>
+        <v>0.06729703502166867</v>
       </c>
       <c r="I45">
-        <v>0.4214873517223619</v>
+        <v>1.896693082750628</v>
       </c>
       <c r="J45">
-        <v>0.2292918546976389</v>
+        <v>1.031813346139375</v>
       </c>
       <c r="K45">
-        <v>1.154798198222146</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="L45">
-        <v>0.1368955032904432</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M45">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N45">
-        <v>0.01146989564047183</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O45">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P45">
-        <v>7.298863850229895</v>
+        <v>32.84488732603453</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2512,49 +2512,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.2943081623444329</v>
+        <v>1.324386730549948</v>
       </c>
       <c r="C46">
-        <v>5.033455386920482</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="D46">
-        <v>7.01835686441005E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E46">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F46">
-        <v>0.3287794797433174</v>
+        <v>1.479507658844929</v>
       </c>
       <c r="G46">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H46">
-        <v>0.1046842767003735</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I46">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J46">
-        <v>0.3072510852948361</v>
+        <v>1.382629883826762</v>
       </c>
       <c r="K46">
-        <v>1.547429585617676</v>
+        <v>6.963433135279539</v>
       </c>
       <c r="L46">
-        <v>0.6236350705453523</v>
+        <v>2.806357817454086</v>
       </c>
       <c r="M46">
-        <v>3.798437840296615</v>
+        <v>17.09297028133476</v>
       </c>
       <c r="N46">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O46">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P46">
-        <v>16.64148564932215</v>
+        <v>74.88668542194966</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2562,49 +2562,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.3748669659058652</v>
+        <v>1.686901346576394</v>
       </c>
       <c r="C47">
-        <v>6.411226022026455</v>
+        <v>28.85051709911903</v>
       </c>
       <c r="D47">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E47">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F47">
-        <v>0.2941711134545473</v>
+        <v>1.323770010545463</v>
       </c>
       <c r="G47">
-        <v>1.41319415238224</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="H47">
-        <v>0.08972938002889158</v>
+        <v>0.4037822101300122</v>
       </c>
       <c r="I47">
-        <v>2.528924110334171</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="J47">
-        <v>0.1605042982883472</v>
+        <v>0.7222693422975626</v>
       </c>
       <c r="K47">
-        <v>0.8083587387555022</v>
+        <v>3.637614324399759</v>
       </c>
       <c r="L47">
-        <v>0.2737910065808865</v>
+        <v>1.23205952961399</v>
       </c>
       <c r="M47">
-        <v>1.667606856715587</v>
+        <v>7.504230855220143</v>
       </c>
       <c r="N47">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O47">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P47">
-        <v>14.14692500376383</v>
+        <v>63.66116251693725</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2612,49 +2612,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.3426434444812923</v>
+        <v>1.541895500165816</v>
       </c>
       <c r="C48">
-        <v>5.860117767984064</v>
+        <v>26.37052995592828</v>
       </c>
       <c r="D48">
-        <v>0.001193120666949709</v>
+        <v>0.005369043001273689</v>
       </c>
       <c r="E48">
-        <v>0.4315533326192101</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="F48">
-        <v>0.4672129448983987</v>
+        <v>2.102458252042794</v>
       </c>
       <c r="G48">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H48">
-        <v>0.09272035936318798</v>
+        <v>0.4172416171343458</v>
       </c>
       <c r="I48">
-        <v>2.613221580678643</v>
+        <v>11.7594971130539</v>
       </c>
       <c r="J48">
-        <v>0.2568068772613555</v>
+        <v>1.1556309476761</v>
       </c>
       <c r="K48">
-        <v>1.293373982008803</v>
+        <v>5.820182919039616</v>
       </c>
       <c r="L48">
-        <v>0.3954758983946137</v>
+        <v>1.779641542775762</v>
       </c>
       <c r="M48">
-        <v>2.408765459700292</v>
+        <v>10.83944456865131</v>
       </c>
       <c r="N48">
-        <v>0.01146989564047183</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O48">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P48">
-        <v>16.60031095080373</v>
+        <v>74.7013992786168</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2662,49 +2662,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.3088087469854908</v>
+        <v>1.389639361434708</v>
       </c>
       <c r="C49">
-        <v>5.281454101239555</v>
+        <v>23.766543455578</v>
       </c>
       <c r="D49">
-        <v>0.001544038510170211</v>
+        <v>0.006948173295765951</v>
       </c>
       <c r="E49">
-        <v>0.558480783389566</v>
+        <v>2.513163525253046</v>
       </c>
       <c r="F49">
-        <v>0.3287794797433174</v>
+        <v>1.479507658844929</v>
       </c>
       <c r="G49">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H49">
-        <v>0.1375850493776339</v>
+        <v>0.6191327221993519</v>
       </c>
       <c r="I49">
-        <v>3.87768363584573</v>
+        <v>17.44957636130578</v>
       </c>
       <c r="J49">
-        <v>0.4448261981134195</v>
+        <v>2.001717891510387</v>
       </c>
       <c r="K49">
-        <v>2.240308504550963</v>
+        <v>10.08138827047933</v>
       </c>
       <c r="L49">
-        <v>0.4411077328247617</v>
+        <v>1.984984797711428</v>
       </c>
       <c r="M49">
-        <v>2.686699935819557</v>
+        <v>12.090149711188</v>
       </c>
       <c r="N49">
-        <v>0.02580726519106162</v>
+        <v>0.1161326933597773</v>
       </c>
       <c r="O49">
-        <v>0.4078607779176843</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="P49">
-        <v>18.32039853746553</v>
+        <v>82.4417934185949</v>
       </c>
     </row>
   </sheetData>
